--- a/src/test/resources/com/sirion/xls/Client Admin Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Client Admin Suite.xlsx
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2023" uniqueCount="555">
   <si>
     <t>TCID</t>
   </si>
@@ -2316,7 +2316,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2357,7 +2357,9 @@
       <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -2381,7 +2383,9 @@
       <c r="C5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -2393,7 +2397,9 @@
       <c r="C6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -2406,7 +2412,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>137</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2420,7 +2426,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>137</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2434,7 +2440,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>137</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2448,7 +2454,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>137</v>
+        <v>553</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2462,7 +2468,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>137</v>
+        <v>553</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2643,7 +2649,9 @@
       <c r="C25" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="9"/>
+      <c r="D25" s="9" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -2655,7 +2663,9 @@
       <c r="C26" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
@@ -2667,7 +2677,9 @@
       <c r="C27" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="9"/>
+      <c r="D27" s="9" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
@@ -2679,7 +2691,9 @@
       <c r="C28" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="9"/>
+      <c r="D28" s="9" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
@@ -2691,7 +2705,9 @@
       <c r="C29" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="9"/>
+      <c r="D29" s="9" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
@@ -2703,7 +2719,9 @@
       <c r="C30" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="9"/>
+      <c r="D30" s="9" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
@@ -2715,7 +2733,9 @@
       <c r="C31" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="9"/>
+      <c r="D31" s="9" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
@@ -2727,7 +2747,9 @@
       <c r="C32" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="9"/>
+      <c r="D32" s="9" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
@@ -2739,7 +2761,9 @@
       <c r="C33" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="9"/>
+      <c r="D33" s="9" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
@@ -2751,7 +2775,9 @@
       <c r="C34" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="9"/>
+      <c r="D34" s="9" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
@@ -2763,7 +2789,9 @@
       <c r="C35" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="9"/>
+      <c r="D35" s="9" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
@@ -2775,7 +2803,9 @@
       <c r="C36" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="9"/>
+      <c r="D36" s="9" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
@@ -2787,7 +2817,9 @@
       <c r="C37" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="9"/>
+      <c r="D37" s="9" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
@@ -2799,7 +2831,9 @@
       <c r="C38" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="9"/>
+      <c r="D38" s="9" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
@@ -2811,7 +2845,9 @@
       <c r="C39" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="9"/>
+      <c r="D39" s="9" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
@@ -2823,7 +2859,9 @@
       <c r="C40" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="9"/>
+      <c r="D40" s="9" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
@@ -3651,7 +3689,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>137</v>
+        <v>553</v>
       </c>
       <c r="D3" s="4"/>
     </row>
@@ -3856,7 +3894,7 @@
         <v>3</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>137</v>
+        <v>553</v>
       </c>
       <c r="W3" s="4"/>
     </row>
@@ -3881,7 +3919,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="22.28515625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="25.140625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="7" style="2" width="9.140625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="28.140625" collapsed="true"/>
@@ -3913,7 +3951,9 @@
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>552</v>
+      </c>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3929,7 +3969,9 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3945,7 +3987,9 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3961,7 +4005,9 @@
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="F5" s="4"/>
     </row>
   </sheetData>
@@ -4085,7 +4131,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="15.28515625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="7" style="2" width="9.140625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="28.140625" collapsed="true"/>
@@ -4117,7 +4163,9 @@
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>552</v>
+      </c>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4133,7 +4181,9 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4149,7 +4199,9 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -4256,7 +4308,7 @@
     <col min="1" max="2" bestFit="true" customWidth="true" style="2" width="35.85546875" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="17.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="7" style="2" width="9.140625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="28.140625" collapsed="true"/>
@@ -4288,7 +4340,9 @@
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>552</v>
+      </c>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4304,7 +4358,9 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4320,7 +4376,9 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -4429,7 +4487,7 @@
     <col min="1" max="2" bestFit="true" customWidth="true" style="2" width="15.0" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="16.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="7" style="2" width="9.140625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="28.140625" collapsed="true"/>
@@ -4461,7 +4519,9 @@
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>552</v>
+      </c>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4477,7 +4537,9 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4493,7 +4555,9 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -4605,7 +4669,7 @@
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="13.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="14.5703125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="8" max="16384" style="2" width="29.85546875" collapsed="true"/>
   </cols>
@@ -4639,7 +4703,9 @@
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="F2" s="15" t="s">
+        <v>552</v>
+      </c>
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -4658,7 +4724,9 @@
       <c r="E3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="14"/>
+      <c r="F3" s="14" t="s">
+        <v>553</v>
+      </c>
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4677,7 +4745,9 @@
       <c r="E4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="14" t="s">
+        <v>553</v>
+      </c>
       <c r="G4" s="14"/>
     </row>
   </sheetData>
@@ -4701,7 +4771,7 @@
     <col min="2" max="3" bestFit="true" customWidth="true" style="2" width="32.0" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="28.140625" collapsed="true"/>
   </cols>
@@ -4735,7 +4805,9 @@
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>552</v>
+      </c>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -4754,7 +4826,9 @@
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4773,7 +4847,9 @@
       <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="G4" s="4"/>
     </row>
   </sheetData>
@@ -4896,7 +4972,7 @@
     <col min="4" max="4" customWidth="true" style="2" width="32.7109375" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="12.42578125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="9" max="9" style="2" width="9.140625" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="28.140625" collapsed="true"/>
@@ -4936,7 +5012,9 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="G2" s="10" t="s">
+        <v>552</v>
+      </c>
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -4958,7 +5036,9 @@
       <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4980,7 +5060,9 @@
       <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="H4" s="4"/>
     </row>
   </sheetData>
@@ -5110,7 +5192,7 @@
     <col min="1" max="2" bestFit="true" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="19.7109375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="16384" style="2" width="53.5703125" collapsed="true"/>
   </cols>
@@ -5140,7 +5222,9 @@
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>552</v>
+      </c>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5156,7 +5240,9 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5172,7 +5258,9 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -5282,7 +5370,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="22.7109375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="25.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="16384" style="2" width="53.5703125" collapsed="true"/>
   </cols>
@@ -5312,7 +5400,9 @@
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>552</v>
+      </c>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5328,7 +5418,9 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5344,7 +5436,9 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5360,7 +5454,9 @@
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="F5" s="4"/>
     </row>
   </sheetData>
@@ -5485,7 +5581,7 @@
     <col min="1" max="2" bestFit="true" customWidth="true" style="2" width="13.5703125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="11.140625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="16384" style="2" width="53.5703125" collapsed="true"/>
   </cols>
@@ -5515,7 +5611,9 @@
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>552</v>
+      </c>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5531,7 +5629,9 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5547,7 +5647,9 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5563,7 +5665,9 @@
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="F5" s="4"/>
     </row>
   </sheetData>
@@ -5784,7 +5888,7 @@
     <col min="1" max="2" bestFit="true" customWidth="true" style="2" width="33.42578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="21.0" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="16384" style="2" width="53.5703125" collapsed="true"/>
   </cols>
@@ -5814,7 +5918,9 @@
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>552</v>
+      </c>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5830,7 +5936,9 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5846,7 +5954,9 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -5955,7 +6065,7 @@
     <col min="1" max="2" bestFit="true" customWidth="true" style="2" width="26.28515625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="16.85546875" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="7" style="2" width="9.140625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="28.140625" collapsed="true"/>
@@ -5987,7 +6097,9 @@
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>552</v>
+      </c>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6003,7 +6115,9 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6019,7 +6133,9 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -6128,7 +6244,7 @@
     <col min="1" max="2" bestFit="true" customWidth="true" style="2" width="26.28515625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="16.85546875" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="7" style="2" width="9.140625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="28.140625" collapsed="true"/>
@@ -6160,7 +6276,9 @@
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>552</v>
+      </c>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6176,7 +6294,9 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6192,7 +6312,9 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -6301,7 +6423,7 @@
     <col min="1" max="2" bestFit="true" customWidth="true" style="2" width="36.85546875" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="7" style="2" width="9.140625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="28.140625" collapsed="true"/>
@@ -6333,7 +6455,9 @@
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>552</v>
+      </c>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6349,7 +6473,9 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6365,7 +6491,9 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -6474,7 +6602,7 @@
     <col min="1" max="2" bestFit="true" customWidth="true" style="2" width="12.85546875" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="13.140625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="7" style="2" width="9.140625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="28.140625" collapsed="true"/>
@@ -6506,7 +6634,9 @@
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>552</v>
+      </c>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6522,7 +6652,9 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6538,7 +6670,9 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -6649,7 +6783,7 @@
     <col min="2" max="3" bestFit="true" customWidth="true" style="2" width="39.42578125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="13.0" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="7.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="8" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
@@ -6683,7 +6817,9 @@
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="F2" s="15" t="s">
+        <v>552</v>
+      </c>
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -6702,7 +6838,9 @@
       <c r="E3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="14"/>
+      <c r="F3" s="14" t="s">
+        <v>553</v>
+      </c>
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -6744,7 +6882,7 @@
     <col min="1" max="2" bestFit="true" customWidth="true" style="2" width="24.140625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="7" style="2" width="9.140625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="28.140625" collapsed="true"/>
@@ -6776,7 +6914,9 @@
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>552</v>
+      </c>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6792,7 +6932,9 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6808,7 +6950,9 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -6917,7 +7061,7 @@
     <col min="1" max="2" bestFit="true" customWidth="true" style="2" width="23.85546875" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="24.0" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="7" style="2" width="9.140625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="28.140625" collapsed="true"/>
@@ -6949,7 +7093,9 @@
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>552</v>
+      </c>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6965,7 +7111,9 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6981,7 +7129,9 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -7091,7 +7241,7 @@
     <col min="2" max="2" customWidth="true" style="2" width="32.28515625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="26.42578125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="7" style="2" width="9.140625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="28.140625" collapsed="true"/>
@@ -7123,7 +7273,9 @@
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>552</v>
+      </c>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -8612,7 +8764,7 @@
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="9" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
@@ -8672,7 +8824,9 @@
       <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -8694,7 +8848,9 @@
       <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="H4" s="4"/>
     </row>
   </sheetData>
@@ -9562,7 +9718,7 @@
     <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="23.5703125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
@@ -9732,7 +9888,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>137</v>
+        <v>553</v>
       </c>
       <c r="F3" s="14"/>
     </row>
@@ -9750,7 +9906,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>137</v>
+        <v>553</v>
       </c>
       <c r="F4" s="14"/>
     </row>
@@ -9916,7 +10072,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>137</v>
+        <v>553</v>
       </c>
       <c r="G3" s="14"/>
     </row>
@@ -9937,7 +10093,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>137</v>
+        <v>553</v>
       </c>
       <c r="G4" s="14"/>
     </row>
@@ -10105,7 +10261,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>137</v>
+        <v>553</v>
       </c>
       <c r="F3" s="14"/>
     </row>
@@ -10123,7 +10279,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>137</v>
+        <v>553</v>
       </c>
       <c r="F4" s="14"/>
     </row>
@@ -10273,7 +10429,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>137</v>
+        <v>553</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -10606,7 +10762,7 @@
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="15.85546875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="11.7109375" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="11" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
@@ -10652,7 +10808,9 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>552</v>
+      </c>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10680,7 +10838,9 @@
       <c r="H3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10708,7 +10868,9 @@
       <c r="H4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>553</v>
+      </c>
       <c r="J4" s="4"/>
     </row>
   </sheetData>
@@ -10864,7 +11026,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>137</v>
+        <v>553</v>
       </c>
       <c r="F3" s="4"/>
     </row>
@@ -10971,7 +11133,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>137</v>
+        <v>553</v>
       </c>
       <c r="F3" s="4"/>
     </row>
@@ -11953,7 +12115,7 @@
     <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="15.85546875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="12" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>

--- a/src/test/resources/com/sirion/xls/Client Admin Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Client Admin Suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="645" windowWidth="14805" windowHeight="7470" tabRatio="918" firstSheet="48" activeTab="55"/>
+    <workbookView xWindow="240" yWindow="645" windowWidth="14805" windowHeight="7470" tabRatio="918" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2673" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3374" uniqueCount="712">
   <si>
     <t>TCID</t>
   </si>
@@ -2249,6 +2249,9 @@
   </si>
   <si>
     <t>Change Requests - Cycle Time Trend</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -2804,7 +2807,7 @@
   <cols>
     <col min="1" max="2" bestFit="true" customWidth="true" style="10" width="24.5703125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="10" width="10.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="7.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="7.58203125" collapsed="true"/>
     <col min="5" max="16384" style="10" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
@@ -2838,7 +2841,9 @@
       <c r="C3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="25"/>
+      <c r="D3" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
@@ -2850,7 +2855,9 @@
       <c r="C4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
@@ -2862,7 +2869,9 @@
       <c r="C5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
@@ -2874,7 +2883,9 @@
       <c r="C6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
@@ -2886,7 +2897,9 @@
       <c r="C7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
@@ -2898,7 +2911,9 @@
       <c r="C8" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="25"/>
+      <c r="D8" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
@@ -2910,7 +2925,9 @@
       <c r="C9" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="25"/>
+      <c r="D9" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
@@ -2922,7 +2939,9 @@
       <c r="C10" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="25"/>
+      <c r="D10" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
@@ -2934,7 +2953,9 @@
       <c r="C11" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="25"/>
+      <c r="D11" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
@@ -2946,7 +2967,9 @@
       <c r="C12" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="25"/>
+      <c r="D12" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
@@ -2958,7 +2981,9 @@
       <c r="C13" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="25"/>
+      <c r="D13" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
@@ -2970,7 +2995,9 @@
       <c r="C14" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="25"/>
+      <c r="D14" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
@@ -2982,7 +3009,9 @@
       <c r="C15" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="25"/>
+      <c r="D15" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
@@ -2994,7 +3023,9 @@
       <c r="C16" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="25"/>
+      <c r="D16" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
@@ -3006,7 +3037,9 @@
       <c r="C17" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="25"/>
+      <c r="D17" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
@@ -3018,7 +3051,9 @@
       <c r="C18" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="25"/>
+      <c r="D18" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
@@ -3030,7 +3065,9 @@
       <c r="C19" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="25"/>
+      <c r="D19" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
@@ -3042,7 +3079,9 @@
       <c r="C20" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="25"/>
+      <c r="D20" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
@@ -3054,7 +3093,9 @@
       <c r="C21" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="25"/>
+      <c r="D21" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
@@ -3066,7 +3107,9 @@
       <c r="C22" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="25"/>
+      <c r="D22" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
@@ -3078,7 +3121,9 @@
       <c r="C23" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="25"/>
+      <c r="D23" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
@@ -3090,7 +3135,9 @@
       <c r="C24" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="25"/>
+      <c r="D24" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
@@ -3102,7 +3149,9 @@
       <c r="C25" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="25"/>
+      <c r="D25" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
@@ -3114,7 +3163,9 @@
       <c r="C26" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="25"/>
+      <c r="D26" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
@@ -3126,7 +3177,9 @@
       <c r="C27" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="25"/>
+      <c r="D27" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
@@ -3138,7 +3191,9 @@
       <c r="C28" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="25"/>
+      <c r="D28" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
@@ -3150,7 +3205,9 @@
       <c r="C29" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="25"/>
+      <c r="D29" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
@@ -3162,7 +3219,9 @@
       <c r="C30" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="25"/>
+      <c r="D30" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
@@ -3174,7 +3233,9 @@
       <c r="C31" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="25"/>
+      <c r="D31" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
@@ -3186,7 +3247,9 @@
       <c r="C32" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="25"/>
+      <c r="D32" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
@@ -3198,7 +3261,9 @@
       <c r="C33" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="25"/>
+      <c r="D33" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
@@ -3210,7 +3275,9 @@
       <c r="C34" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="25"/>
+      <c r="D34" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
@@ -3222,7 +3289,9 @@
       <c r="C35" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="25"/>
+      <c r="D35" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
@@ -3234,7 +3303,9 @@
       <c r="C36" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="25"/>
+      <c r="D36" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
@@ -3246,7 +3317,9 @@
       <c r="C37" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="25"/>
+      <c r="D37" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
@@ -3258,7 +3331,9 @@
       <c r="C38" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="25"/>
+      <c r="D38" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
@@ -3270,7 +3345,9 @@
       <c r="C39" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="25"/>
+      <c r="D39" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
@@ -3282,7 +3359,9 @@
       <c r="C40" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="25"/>
+      <c r="D40" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
@@ -3294,7 +3373,9 @@
       <c r="C41" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="25"/>
+      <c r="D41" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
@@ -3306,7 +3387,9 @@
       <c r="C42" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="25"/>
+      <c r="D42" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
@@ -3318,7 +3401,9 @@
       <c r="C43" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="25"/>
+      <c r="D43" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
@@ -3330,7 +3415,9 @@
       <c r="C44" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D44" s="25"/>
+      <c r="D44" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
@@ -3342,7 +3429,9 @@
       <c r="C45" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="25"/>
+      <c r="D45" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
@@ -3354,7 +3443,9 @@
       <c r="C46" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D46" s="25"/>
+      <c r="D46" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
@@ -3366,7 +3457,9 @@
       <c r="C47" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="25"/>
+      <c r="D47" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
@@ -3378,7 +3471,9 @@
       <c r="C48" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D48" s="25"/>
+      <c r="D48" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
@@ -3390,7 +3485,9 @@
       <c r="C49" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="25"/>
+      <c r="D49" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
@@ -3402,7 +3499,9 @@
       <c r="C50" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D50" s="25"/>
+      <c r="D50" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
@@ -3414,7 +3513,9 @@
       <c r="C51" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D51" s="25"/>
+      <c r="D51" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
@@ -3426,7 +3527,9 @@
       <c r="C52" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="25"/>
+      <c r="D52" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
@@ -3438,7 +3541,9 @@
       <c r="C53" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D53" s="25"/>
+      <c r="D53" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
@@ -3450,7 +3555,9 @@
       <c r="C54" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D54" s="25"/>
+      <c r="D54" s="25" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
@@ -3462,7 +3569,9 @@
       <c r="C55" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D55" s="25"/>
+      <c r="D55" s="25" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
@@ -3474,7 +3583,9 @@
       <c r="C56" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D56" s="25"/>
+      <c r="D56" s="25" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
@@ -3512,7 +3623,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="14.5703125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="17.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="16384" style="2" width="35.7109375" collapsed="true"/>
   </cols>
@@ -3542,7 +3653,9 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>656</v>
+      </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3558,7 +3671,9 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3574,7 +3689,9 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -3597,7 +3714,7 @@
     <col min="1" max="2" bestFit="true" customWidth="true" style="2" width="15.0" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="16.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="7" style="2" width="9.140625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="28.140625" collapsed="true"/>
@@ -3629,7 +3746,9 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>656</v>
+      </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3645,7 +3764,9 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3661,7 +3782,9 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -3685,7 +3808,7 @@
     <col min="2" max="3" bestFit="true" customWidth="true" style="2" width="32.0" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="20.0" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="28.140625" collapsed="true"/>
   </cols>
@@ -3719,7 +3842,9 @@
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="F2" s="9" t="s">
+        <v>656</v>
+      </c>
       <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3738,7 +3863,9 @@
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3757,7 +3884,9 @@
       <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="G4" s="4"/>
     </row>
   </sheetData>
@@ -3782,7 +3911,7 @@
     <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="50.42578125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="12.42578125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="9" max="9" style="2" width="9.140625" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="28.140625" collapsed="true"/>
@@ -3822,7 +3951,9 @@
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="G2" s="9" t="s">
+        <v>656</v>
+      </c>
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3844,7 +3975,9 @@
       <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3866,7 +3999,9 @@
       <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H4" s="4"/>
     </row>
   </sheetData>
@@ -3888,7 +4023,7 @@
     <col min="1" max="2" bestFit="true" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="19.7109375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="16384" style="2" width="53.5703125" collapsed="true"/>
   </cols>
@@ -3918,7 +4053,9 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>656</v>
+      </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3934,7 +4071,9 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3950,7 +4089,9 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -3974,7 +4115,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="22.7109375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="25.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="16384" style="2" width="53.5703125" collapsed="true"/>
   </cols>
@@ -4004,7 +4145,9 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>656</v>
+      </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4020,7 +4163,9 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4036,7 +4181,9 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -4059,7 +4206,7 @@
     <col min="1" max="2" bestFit="true" customWidth="true" style="2" width="13.5703125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="11.140625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="16384" style="2" width="53.5703125" collapsed="true"/>
   </cols>
@@ -4089,7 +4236,9 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>656</v>
+      </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4105,7 +4254,9 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4121,7 +4272,9 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -4144,7 +4297,7 @@
     <col min="1" max="2" bestFit="true" customWidth="true" style="2" width="33.42578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="21.0" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="16384" style="2" width="53.5703125" collapsed="true"/>
   </cols>
@@ -4174,7 +4327,9 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>656</v>
+      </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4190,7 +4345,9 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4206,7 +4363,9 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -4230,7 +4389,7 @@
     <col min="1" max="2" bestFit="true" customWidth="true" style="2" width="20.5703125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="16.85546875" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="7" style="2" width="9.140625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="28.140625" collapsed="true"/>
@@ -4262,7 +4421,9 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>656</v>
+      </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4278,7 +4439,9 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4294,7 +4457,9 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -4317,7 +4482,7 @@
     <col min="1" max="2" bestFit="true" customWidth="true" style="2" width="26.28515625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="15.7109375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="7" style="2" width="9.140625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="28.140625" collapsed="true"/>
@@ -4349,7 +4514,9 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>656</v>
+      </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4365,7 +4532,9 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4381,7 +4550,9 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -4394,9 +4565,9 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4405,7 +4576,7 @@
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="13.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="14.5703125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="8" max="16384" style="2" width="29.85546875" collapsed="true"/>
   </cols>
@@ -4439,7 +4610,9 @@
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="F2" s="14" t="s">
+        <v>656</v>
+      </c>
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -4456,9 +4629,11 @@
         <v>33</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="13"/>
+        <v>711</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>656</v>
+      </c>
       <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4475,9 +4650,11 @@
         <v>33</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="13"/>
+        <v>711</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>656</v>
+      </c>
       <c r="G4" s="13"/>
     </row>
   </sheetData>
@@ -4500,7 +4677,7 @@
     <col min="1" max="2" bestFit="true" customWidth="true" style="2" width="29.7109375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="7" style="2" width="9.140625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="28.140625" collapsed="true"/>
@@ -4532,7 +4709,9 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>656</v>
+      </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4548,7 +4727,9 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4564,7 +4745,9 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -4587,7 +4770,7 @@
     <col min="1" max="2" bestFit="true" customWidth="true" style="2" width="12.85546875" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="13.140625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="7" style="2" width="9.140625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="28.140625" collapsed="true"/>
@@ -4619,7 +4802,9 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>656</v>
+      </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4635,7 +4820,9 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4651,7 +4838,9 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -4674,7 +4863,7 @@
     <col min="1" max="2" bestFit="true" customWidth="true" style="2" width="19.140625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="7" style="2" width="9.140625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="28.140625" collapsed="true"/>
@@ -4706,7 +4895,9 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>656</v>
+      </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4722,7 +4913,9 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4738,7 +4931,9 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -4761,7 +4956,7 @@
     <col min="1" max="2" bestFit="true" customWidth="true" style="2" width="23.85546875" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="24.0" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="7" style="2" width="9.140625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="28.140625" collapsed="true"/>
@@ -4793,7 +4988,9 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>656</v>
+      </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4809,7 +5006,9 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4825,7 +5024,9 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -4848,7 +5049,7 @@
     <col min="2" max="2" customWidth="true" style="2" width="32.28515625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="26.42578125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="7" style="2" width="9.140625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="28.140625" collapsed="true"/>
@@ -4880,7 +5081,9 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>656</v>
+      </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4896,7 +5099,9 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4912,7 +5117,9 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -4934,7 +5141,7 @@
     <col min="1" max="2" bestFit="true" customWidth="true" style="2" width="15.28515625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="14.85546875" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="7" style="2" width="9.140625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="28.140625" collapsed="true"/>
@@ -4966,7 +5173,9 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>656</v>
+      </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4982,7 +5191,9 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4998,7 +5209,9 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -5020,7 +5233,7 @@
     <col min="1" max="2" bestFit="true" customWidth="true" style="2" width="33.42578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="21.0" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
@@ -5050,7 +5263,9 @@
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="E2" s="14" t="s">
+        <v>656</v>
+      </c>
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5066,7 +5281,9 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5082,7 +5299,9 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -5105,7 +5324,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="18.0" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="20.85546875" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="16384" style="2" width="53.5703125" collapsed="true"/>
   </cols>
@@ -5135,7 +5354,9 @@
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="E2" s="14" t="s">
+        <v>656</v>
+      </c>
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5151,7 +5372,9 @@
       <c r="D3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="13" t="s">
+        <v>641</v>
+      </c>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5167,7 +5390,9 @@
       <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>641</v>
+      </c>
       <c r="F4" s="13"/>
     </row>
   </sheetData>
@@ -5190,7 +5415,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="14.0" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="16.85546875" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
@@ -5220,7 +5445,9 @@
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="E2" s="14" t="s">
+        <v>656</v>
+      </c>
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5236,7 +5463,9 @@
       <c r="D3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="13" t="s">
+        <v>641</v>
+      </c>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5252,7 +5481,9 @@
       <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>641</v>
+      </c>
       <c r="F4" s="13"/>
     </row>
   </sheetData>
@@ -5275,7 +5506,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="22.85546875" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
@@ -5305,7 +5536,9 @@
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="E2" s="14" t="s">
+        <v>656</v>
+      </c>
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5321,7 +5554,9 @@
       <c r="D3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="13" t="s">
+        <v>641</v>
+      </c>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5337,7 +5572,9 @@
       <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>641</v>
+      </c>
       <c r="F4" s="13"/>
     </row>
   </sheetData>
@@ -5361,7 +5598,7 @@
     <col min="2" max="3" bestFit="true" customWidth="true" style="2" width="39.42578125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="13.0" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="8" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
@@ -5395,7 +5632,9 @@
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="F2" s="14" t="s">
+        <v>656</v>
+      </c>
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -5414,7 +5653,9 @@
       <c r="E3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="13"/>
+      <c r="F3" s="13" t="s">
+        <v>641</v>
+      </c>
       <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -5433,7 +5674,9 @@
       <c r="E4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="13"/>
+      <c r="F4" s="13" t="s">
+        <v>641</v>
+      </c>
       <c r="G4" s="13"/>
     </row>
   </sheetData>
@@ -5455,7 +5698,7 @@
     <col min="1" max="2" bestFit="true" customWidth="true" style="2" width="26.5703125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="18.7109375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
@@ -5485,7 +5728,9 @@
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="E2" s="14" t="s">
+        <v>656</v>
+      </c>
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5501,7 +5746,9 @@
       <c r="D3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="13" t="s">
+        <v>641</v>
+      </c>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5517,7 +5764,9 @@
       <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>641</v>
+      </c>
       <c r="F4" s="13"/>
     </row>
   </sheetData>
@@ -5539,7 +5788,7 @@
     <col min="1" max="2" bestFit="true" customWidth="true" style="2" width="19.0" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="14.42578125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
@@ -5569,7 +5818,9 @@
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="E2" s="14" t="s">
+        <v>656</v>
+      </c>
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5585,7 +5836,9 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5601,7 +5854,9 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -5624,7 +5879,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="18.7109375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="21.7109375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
@@ -5654,7 +5909,9 @@
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="E2" s="14" t="s">
+        <v>656</v>
+      </c>
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5670,7 +5927,9 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5686,7 +5945,9 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -5708,7 +5969,7 @@
     <col min="1" max="2" bestFit="true" customWidth="true" style="2" width="33.42578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="23.42578125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
@@ -5738,7 +5999,9 @@
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="E2" s="14" t="s">
+        <v>656</v>
+      </c>
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5754,7 +6017,9 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5770,7 +6035,9 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -5792,7 +6059,7 @@
     <col min="1" max="2" bestFit="true" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="16.42578125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
@@ -5822,7 +6089,9 @@
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="E2" s="14" t="s">
+        <v>656</v>
+      </c>
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5838,7 +6107,9 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5854,7 +6125,9 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -5876,7 +6149,7 @@
     <col min="1" max="2" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="18.7109375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
@@ -5906,7 +6179,9 @@
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="E2" s="14" t="s">
+        <v>656</v>
+      </c>
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5922,7 +6197,9 @@
       <c r="D3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="13" t="s">
+        <v>641</v>
+      </c>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5938,7 +6215,9 @@
       <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>641</v>
+      </c>
       <c r="F4" s="13"/>
     </row>
   </sheetData>
@@ -5960,7 +6239,7 @@
     <col min="1" max="2" bestFit="true" customWidth="true" style="2" width="23.0" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="18.42578125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
@@ -5990,7 +6269,9 @@
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="E2" s="14" t="s">
+        <v>656</v>
+      </c>
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6006,7 +6287,9 @@
       <c r="D3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="13" t="s">
+        <v>641</v>
+      </c>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6022,7 +6305,9 @@
       <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>641</v>
+      </c>
       <c r="F4" s="13"/>
     </row>
   </sheetData>
@@ -6045,7 +6330,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="18.42578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="21.28515625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
@@ -6075,7 +6360,9 @@
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="E2" s="14" t="s">
+        <v>656</v>
+      </c>
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6091,7 +6378,9 @@
       <c r="D3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="13" t="s">
+        <v>641</v>
+      </c>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6107,7 +6396,9 @@
       <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>641</v>
+      </c>
       <c r="F4" s="13"/>
     </row>
   </sheetData>
@@ -6131,7 +6422,7 @@
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="21.85546875" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="24.7109375" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="8" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
@@ -6165,7 +6456,9 @@
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="F2" s="14" t="s">
+        <v>656</v>
+      </c>
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -6184,7 +6477,9 @@
       <c r="E3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="13"/>
+      <c r="F3" s="13" t="s">
+        <v>641</v>
+      </c>
       <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -6203,7 +6498,9 @@
       <c r="E4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="13"/>
+      <c r="F4" s="13" t="s">
+        <v>641</v>
+      </c>
       <c r="G4" s="13"/>
     </row>
   </sheetData>
@@ -6225,7 +6522,7 @@
     <col min="1" max="2" bestFit="true" customWidth="true" style="2" width="22.28515625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="20.7109375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
@@ -6255,7 +6552,9 @@
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="E2" s="14" t="s">
+        <v>656</v>
+      </c>
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6271,7 +6570,9 @@
       <c r="D3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="13" t="s">
+        <v>641</v>
+      </c>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6287,7 +6588,9 @@
       <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>641</v>
+      </c>
       <c r="F4" s="13"/>
     </row>
   </sheetData>
@@ -6313,7 +6616,7 @@
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="27.140625" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="9" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
@@ -6351,7 +6654,9 @@
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="G2" s="19" t="s">
+        <v>656</v>
+      </c>
       <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -6373,7 +6678,9 @@
       <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -6395,7 +6702,9 @@
       <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H4" s="4"/>
     </row>
   </sheetData>
@@ -6417,7 +6726,7 @@
     <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="5.42578125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="7.140625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="6" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
@@ -6443,7 +6752,9 @@
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="D2" s="9" t="s">
+        <v>656</v>
+      </c>
       <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -6456,7 +6767,9 @@
       <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6469,7 +6782,9 @@
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -6482,7 +6797,9 @@
       <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E5" s="4"/>
     </row>
   </sheetData>
@@ -6504,7 +6821,7 @@
     <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="17.0" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="17.28515625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="6" max="16384" style="2" width="25.85546875" collapsed="true"/>
   </cols>
@@ -6530,7 +6847,9 @@
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="D2" s="9" t="s">
+        <v>656</v>
+      </c>
       <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -6543,7 +6862,9 @@
       <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6556,7 +6877,9 @@
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E4" s="4"/>
     </row>
   </sheetData>
@@ -6582,7 +6905,7 @@
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="19.140625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="13.140625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="11" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
@@ -6628,7 +6951,9 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="I2" s="9" t="s">
+        <v>656</v>
+      </c>
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -6656,7 +6981,9 @@
       <c r="H3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="J3" s="4"/>
     </row>
   </sheetData>
@@ -6678,7 +7005,7 @@
     <col min="1" max="2" bestFit="true" customWidth="true" style="2" width="17.0" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="15.85546875" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="16384" style="2" width="16.5703125" collapsed="true"/>
   </cols>
@@ -6708,7 +7035,9 @@
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="E2" s="14" t="s">
+        <v>656</v>
+      </c>
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6724,7 +7053,9 @@
       <c r="D3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="13" t="s">
+        <v>641</v>
+      </c>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6740,7 +7071,9 @@
       <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>641</v>
+      </c>
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6756,7 +7089,9 @@
       <c r="D5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>641</v>
+      </c>
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6772,7 +7107,9 @@
       <c r="D6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="13" t="s">
+        <v>641</v>
+      </c>
       <c r="F6" s="13"/>
     </row>
   </sheetData>
@@ -6792,7 +7129,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="23.85546875" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="17.7109375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="7" style="2" width="9.140625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="28.140625" collapsed="true"/>
@@ -6824,7 +7161,9 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>656</v>
+      </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6840,7 +7179,9 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6856,7 +7197,9 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -6875,7 +7218,7 @@
     <col min="1" max="2" bestFit="true" customWidth="true" style="2" width="26.5703125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="16.42578125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="7" style="2" width="9.140625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="28.140625" collapsed="true"/>
@@ -6907,7 +7250,9 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>656</v>
+      </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6923,7 +7268,9 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6939,7 +7286,9 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -6961,7 +7310,7 @@
     <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="24.7109375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="37.42578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="6" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
@@ -6987,7 +7336,9 @@
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="D2" s="9" t="s">
+        <v>656</v>
+      </c>
       <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -7000,7 +7351,9 @@
       <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -7013,7 +7366,9 @@
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -7026,7 +7381,9 @@
       <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -7039,7 +7396,9 @@
       <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -7052,7 +7411,9 @@
       <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -7065,7 +7426,9 @@
       <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -7078,7 +7441,9 @@
       <c r="C9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -7091,7 +7456,9 @@
       <c r="C10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -7104,7 +7471,9 @@
       <c r="C11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -7117,7 +7486,9 @@
       <c r="C12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -7130,7 +7501,9 @@
       <c r="C13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -7143,7 +7516,9 @@
       <c r="C14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -7156,7 +7531,9 @@
       <c r="C15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -7169,7 +7546,9 @@
       <c r="C16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -7182,7 +7561,9 @@
       <c r="C17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -7195,7 +7576,9 @@
       <c r="C18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -7208,7 +7591,9 @@
       <c r="C19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -7221,7 +7606,9 @@
       <c r="C20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -7234,7 +7621,9 @@
       <c r="C21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -7247,7 +7636,9 @@
       <c r="C22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -7260,7 +7651,9 @@
       <c r="C23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -7273,7 +7666,9 @@
       <c r="C24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -7286,7 +7681,9 @@
       <c r="C25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -7299,7 +7696,9 @@
       <c r="C26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -7312,7 +7711,9 @@
       <c r="C27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -7325,7 +7726,9 @@
       <c r="C28" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -7338,7 +7741,9 @@
       <c r="C29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -7351,7 +7756,9 @@
       <c r="C30" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -7364,7 +7771,9 @@
       <c r="C31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="4"/>
+      <c r="D31" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -7377,7 +7786,9 @@
       <c r="C32" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -7390,7 +7801,9 @@
       <c r="C33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="4"/>
+      <c r="D33" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -7403,7 +7816,9 @@
       <c r="C34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="4"/>
+      <c r="D34" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -7416,7 +7831,9 @@
       <c r="C35" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="4"/>
+      <c r="D35" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -7429,7 +7846,9 @@
       <c r="C36" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="4"/>
+      <c r="D36" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -7442,7 +7861,9 @@
       <c r="C37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="4"/>
+      <c r="D37" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -7455,7 +7876,9 @@
       <c r="C38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="4"/>
+      <c r="D38" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -7468,7 +7891,9 @@
       <c r="C39" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="4"/>
+      <c r="D39" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -7481,7 +7906,9 @@
       <c r="C40" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="4"/>
+      <c r="D40" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -7494,7 +7921,9 @@
       <c r="C41" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="4"/>
+      <c r="D41" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -7507,7 +7936,9 @@
       <c r="C42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="4"/>
+      <c r="D42" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -7520,7 +7951,9 @@
       <c r="C43" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="4"/>
+      <c r="D43" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -7533,7 +7966,9 @@
       <c r="C44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D44" s="4"/>
+      <c r="D44" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -7546,7 +7981,9 @@
       <c r="C45" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="4"/>
+      <c r="D45" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -7559,7 +7996,9 @@
       <c r="C46" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D46" s="4"/>
+      <c r="D46" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -7572,7 +8011,9 @@
       <c r="C47" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="4"/>
+      <c r="D47" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -7585,7 +8026,9 @@
       <c r="C48" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D48" s="4"/>
+      <c r="D48" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -7598,7 +8041,9 @@
       <c r="C49" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="4"/>
+      <c r="D49" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -7611,7 +8056,9 @@
       <c r="C50" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D50" s="4"/>
+      <c r="D50" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -7624,7 +8071,9 @@
       <c r="C51" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D51" s="4"/>
+      <c r="D51" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -7637,7 +8086,9 @@
       <c r="C52" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="4"/>
+      <c r="D52" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -7650,7 +8101,9 @@
       <c r="C53" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D53" s="4"/>
+      <c r="D53" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -7663,7 +8116,9 @@
       <c r="C54" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D54" s="4"/>
+      <c r="D54" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -7676,7 +8131,9 @@
       <c r="C55" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D55" s="4"/>
+      <c r="D55" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -7689,7 +8146,9 @@
       <c r="C56" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D56" s="4"/>
+      <c r="D56" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -7702,7 +8161,9 @@
       <c r="C57" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D57" s="4"/>
+      <c r="D57" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -7715,7 +8176,9 @@
       <c r="C58" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D58" s="4"/>
+      <c r="D58" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -7728,7 +8191,9 @@
       <c r="C59" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D59" s="4"/>
+      <c r="D59" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -7741,7 +8206,9 @@
       <c r="C60" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D60" s="4"/>
+      <c r="D60" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -7754,7 +8221,9 @@
       <c r="C61" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D61" s="4"/>
+      <c r="D61" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -7767,7 +8236,9 @@
       <c r="C62" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D62" s="4"/>
+      <c r="D62" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -7780,7 +8251,9 @@
       <c r="C63" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D63" s="4"/>
+      <c r="D63" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -7793,7 +8266,9 @@
       <c r="C64" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D64" s="4"/>
+      <c r="D64" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -7806,7 +8281,9 @@
       <c r="C65" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D65" s="4"/>
+      <c r="D65" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -7819,7 +8296,9 @@
       <c r="C66" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D66" s="4"/>
+      <c r="D66" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E66" s="4"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -7832,7 +8311,9 @@
       <c r="C67" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D67" s="4"/>
+      <c r="D67" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E67" s="4"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -7845,7 +8326,9 @@
       <c r="C68" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D68" s="4"/>
+      <c r="D68" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -7858,7 +8341,9 @@
       <c r="C69" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D69" s="4"/>
+      <c r="D69" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E69" s="4"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -7871,7 +8356,9 @@
       <c r="C70" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D70" s="4"/>
+      <c r="D70" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E70" s="4"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -7884,7 +8371,9 @@
       <c r="C71" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D71" s="4"/>
+      <c r="D71" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E71" s="4"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -7897,7 +8386,9 @@
       <c r="C72" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D72" s="4"/>
+      <c r="D72" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E72" s="4"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -7910,7 +8401,9 @@
       <c r="C73" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D73" s="4"/>
+      <c r="D73" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E73" s="4"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -7923,7 +8416,9 @@
       <c r="C74" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D74" s="4"/>
+      <c r="D74" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E74" s="4"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -7936,7 +8431,9 @@
       <c r="C75" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D75" s="4"/>
+      <c r="D75" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E75" s="4"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -7949,7 +8446,9 @@
       <c r="C76" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D76" s="4"/>
+      <c r="D76" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E76" s="4"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -7962,7 +8461,9 @@
       <c r="C77" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D77" s="4"/>
+      <c r="D77" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E77" s="4"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -7975,7 +8476,9 @@
       <c r="C78" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D78" s="4"/>
+      <c r="D78" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E78" s="4"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -7988,7 +8491,9 @@
       <c r="C79" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D79" s="4"/>
+      <c r="D79" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E79" s="4"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -8001,7 +8506,9 @@
       <c r="C80" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D80" s="4"/>
+      <c r="D80" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E80" s="4"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -8014,7 +8521,9 @@
       <c r="C81" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D81" s="4"/>
+      <c r="D81" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="E81" s="4"/>
     </row>
   </sheetData>
@@ -8043,7 +8552,7 @@
     <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="21.140625" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="18.42578125" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="14" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
@@ -8101,7 +8610,9 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="L2" s="9" t="s">
+        <v>656</v>
+      </c>
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -8138,7 +8649,9 @@
       <c r="K3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="4"/>
+      <c r="L3" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -8173,7 +8686,9 @@
       <c r="K4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="4"/>
+      <c r="L4" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -8208,7 +8723,9 @@
       <c r="K5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="4"/>
+      <c r="L5" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -8243,7 +8760,9 @@
       <c r="K6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="4"/>
+      <c r="L6" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -8278,7 +8797,9 @@
       <c r="K7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="4"/>
+      <c r="L7" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -8313,7 +8834,9 @@
       <c r="K8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="4"/>
+      <c r="L8" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -8348,7 +8871,9 @@
       <c r="K9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="4"/>
+      <c r="L9" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -8383,7 +8908,9 @@
       <c r="K10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="4"/>
+      <c r="L10" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -8418,7 +8945,9 @@
       <c r="K11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="4"/>
+      <c r="L11" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -8453,7 +8982,9 @@
       <c r="K12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="4"/>
+      <c r="L12" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -8488,7 +9019,9 @@
       <c r="K13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="4"/>
+      <c r="L13" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -8523,7 +9056,9 @@
       <c r="K14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="4"/>
+      <c r="L14" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -8558,7 +9093,9 @@
       <c r="K15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="4"/>
+      <c r="L15" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -8593,7 +9130,9 @@
       <c r="K16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L16" s="4"/>
+      <c r="L16" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -8628,7 +9167,9 @@
       <c r="K17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="4"/>
+      <c r="L17" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -8663,7 +9204,9 @@
       <c r="K18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="4"/>
+      <c r="L18" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -8698,7 +9241,9 @@
       <c r="K19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L19" s="4"/>
+      <c r="L19" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -8733,7 +9278,9 @@
       <c r="K20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="4"/>
+      <c r="L20" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="M20" s="4"/>
     </row>
   </sheetData>
@@ -8754,7 +9301,7 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="24.7109375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="5" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
@@ -8776,7 +9323,9 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="C2" s="9" t="s">
+        <v>656</v>
+      </c>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -8786,7 +9335,9 @@
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -8796,7 +9347,9 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -8806,7 +9359,9 @@
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -8816,7 +9371,9 @@
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -8826,7 +9383,9 @@
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -8836,7 +9395,9 @@
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -8846,7 +9407,9 @@
       <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -8856,7 +9419,9 @@
       <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -8866,7 +9431,9 @@
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -8876,7 +9443,9 @@
       <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -8886,7 +9455,9 @@
       <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -8896,7 +9467,9 @@
       <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -8906,7 +9479,9 @@
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -8916,7 +9491,9 @@
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -8926,7 +9503,9 @@
       <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -8936,7 +9515,9 @@
       <c r="B18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -8946,7 +9527,9 @@
       <c r="B19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -8956,7 +9539,9 @@
       <c r="B20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="D20" s="4"/>
     </row>
   </sheetData>
@@ -8979,7 +9564,7 @@
     <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="24.7109375" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="11.7109375" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="9" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
@@ -9017,7 +9602,9 @@
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="G2" s="9" t="s">
+        <v>656</v>
+      </c>
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -9039,7 +9626,9 @@
       <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -9061,7 +9650,9 @@
       <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -9083,7 +9674,9 @@
       <c r="F5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -9105,7 +9698,9 @@
       <c r="F6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -9127,7 +9722,9 @@
       <c r="F7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -9149,7 +9746,9 @@
       <c r="F8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -9171,7 +9770,9 @@
       <c r="F9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -9193,7 +9794,9 @@
       <c r="F10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -9215,7 +9818,9 @@
       <c r="F11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -9237,7 +9842,9 @@
       <c r="F12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -9259,7 +9866,9 @@
       <c r="F13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -9281,7 +9890,9 @@
       <c r="F14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -9303,7 +9914,9 @@
       <c r="F15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -9325,7 +9938,9 @@
       <c r="F16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -9347,7 +9962,9 @@
       <c r="F17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -9369,7 +9986,9 @@
       <c r="F18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -9391,7 +10010,9 @@
       <c r="F19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -9413,7 +10034,9 @@
       <c r="F20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -9435,7 +10058,9 @@
       <c r="F21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -9457,7 +10082,9 @@
       <c r="F22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -9479,7 +10106,9 @@
       <c r="F23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -9501,7 +10130,9 @@
       <c r="F24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -9523,7 +10154,9 @@
       <c r="F25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -9545,7 +10178,9 @@
       <c r="F26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -9567,7 +10202,9 @@
       <c r="F27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="4"/>
+      <c r="G27" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -9589,7 +10226,9 @@
       <c r="F28" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G28" s="4"/>
+      <c r="G28" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -9611,7 +10250,9 @@
       <c r="F29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -9633,7 +10274,9 @@
       <c r="F30" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G30" s="4"/>
+      <c r="G30" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -9655,7 +10298,9 @@
       <c r="F31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="4"/>
+      <c r="G31" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -9677,7 +10322,9 @@
       <c r="F32" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="4"/>
+      <c r="G32" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -9699,7 +10346,9 @@
       <c r="F33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G33" s="4"/>
+      <c r="G33" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -9721,7 +10370,9 @@
       <c r="F34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="4"/>
+      <c r="G34" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -9743,7 +10394,9 @@
       <c r="F35" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G35" s="4"/>
+      <c r="G35" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -9765,7 +10418,9 @@
       <c r="F36" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G36" s="4"/>
+      <c r="G36" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -9787,7 +10442,9 @@
       <c r="F37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G37" s="4"/>
+      <c r="G37" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -9809,7 +10466,9 @@
       <c r="F38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G38" s="4"/>
+      <c r="G38" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -9831,7 +10490,9 @@
       <c r="F39" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G39" s="4"/>
+      <c r="G39" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -9853,7 +10514,9 @@
       <c r="F40" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G40" s="4"/>
+      <c r="G40" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -9875,7 +10538,9 @@
       <c r="F41" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G41" s="4"/>
+      <c r="G41" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -9897,7 +10562,9 @@
       <c r="F42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G42" s="4"/>
+      <c r="G42" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H42" s="4"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -9919,7 +10586,9 @@
       <c r="F43" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="4"/>
+      <c r="G43" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H43" s="4"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -9941,7 +10610,9 @@
       <c r="F44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G44" s="4"/>
+      <c r="G44" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H44" s="4"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -9963,7 +10634,9 @@
       <c r="F45" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G45" s="4"/>
+      <c r="G45" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H45" s="4"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -9985,7 +10658,9 @@
       <c r="F46" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G46" s="4"/>
+      <c r="G46" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H46" s="4"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -10007,7 +10682,9 @@
       <c r="F47" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="4"/>
+      <c r="G47" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H47" s="4"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -10029,7 +10706,9 @@
       <c r="F48" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G48" s="4"/>
+      <c r="G48" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H48" s="4"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -10051,7 +10730,9 @@
       <c r="F49" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G49" s="4"/>
+      <c r="G49" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H49" s="4"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -10073,7 +10754,9 @@
       <c r="F50" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G50" s="4"/>
+      <c r="G50" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H50" s="4"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -10095,7 +10778,9 @@
       <c r="F51" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G51" s="4"/>
+      <c r="G51" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H51" s="4"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -10117,7 +10802,9 @@
       <c r="F52" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="4"/>
+      <c r="G52" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H52" s="4"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -10139,7 +10826,9 @@
       <c r="F53" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G53" s="4"/>
+      <c r="G53" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H53" s="4"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -10161,7 +10850,9 @@
       <c r="F54" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G54" s="4"/>
+      <c r="G54" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H54" s="4"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -10183,7 +10874,9 @@
       <c r="F55" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G55" s="4"/>
+      <c r="G55" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H55" s="4"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -10205,7 +10898,9 @@
       <c r="F56" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G56" s="4"/>
+      <c r="G56" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H56" s="4"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -10227,7 +10922,9 @@
       <c r="F57" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G57" s="4"/>
+      <c r="G57" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H57" s="4"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -10249,7 +10946,9 @@
       <c r="F58" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="4"/>
+      <c r="G58" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H58" s="4"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -10271,7 +10970,9 @@
       <c r="F59" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G59" s="4"/>
+      <c r="G59" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H59" s="4"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -10293,7 +10994,9 @@
       <c r="F60" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G60" s="4"/>
+      <c r="G60" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H60" s="4"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -10315,7 +11018,9 @@
       <c r="F61" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G61" s="4"/>
+      <c r="G61" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H61" s="4"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -10337,7 +11042,9 @@
       <c r="F62" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G62" s="4"/>
+      <c r="G62" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H62" s="4"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -10359,7 +11066,9 @@
       <c r="F63" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G63" s="4"/>
+      <c r="G63" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H63" s="4"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -10381,7 +11090,9 @@
       <c r="F64" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G64" s="4"/>
+      <c r="G64" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H64" s="4"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -10403,7 +11114,9 @@
       <c r="F65" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G65" s="4"/>
+      <c r="G65" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H65" s="4"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -10425,7 +11138,9 @@
       <c r="F66" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G66" s="4"/>
+      <c r="G66" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H66" s="4"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -10447,7 +11162,9 @@
       <c r="F67" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G67" s="4"/>
+      <c r="G67" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H67" s="4"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -10469,7 +11186,9 @@
       <c r="F68" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G68" s="4"/>
+      <c r="G68" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H68" s="4"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -10491,7 +11210,9 @@
       <c r="F69" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G69" s="4"/>
+      <c r="G69" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H69" s="4"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -10513,7 +11234,9 @@
       <c r="F70" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G70" s="4"/>
+      <c r="G70" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H70" s="4"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -10535,7 +11258,9 @@
       <c r="F71" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G71" s="4"/>
+      <c r="G71" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H71" s="4"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -10557,7 +11282,9 @@
       <c r="F72" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G72" s="4"/>
+      <c r="G72" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H72" s="4"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -10579,7 +11306,9 @@
       <c r="F73" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G73" s="4"/>
+      <c r="G73" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H73" s="4"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -10601,7 +11330,9 @@
       <c r="F74" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G74" s="4"/>
+      <c r="G74" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H74" s="4"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -10623,7 +11354,9 @@
       <c r="F75" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G75" s="4"/>
+      <c r="G75" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H75" s="4"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -10645,7 +11378,9 @@
       <c r="F76" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G76" s="4"/>
+      <c r="G76" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H76" s="4"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -10667,7 +11402,9 @@
       <c r="F77" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G77" s="4"/>
+      <c r="G77" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H77" s="4"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -10689,7 +11426,9 @@
       <c r="F78" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G78" s="4"/>
+      <c r="G78" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H78" s="4"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -10711,7 +11450,9 @@
       <c r="F79" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G79" s="4"/>
+      <c r="G79" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H79" s="4"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -10733,7 +11474,9 @@
       <c r="F80" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G80" s="4"/>
+      <c r="G80" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H80" s="4"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -10755,7 +11498,9 @@
       <c r="F81" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G81" s="4"/>
+      <c r="G81" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H81" s="4"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -10777,7 +11522,9 @@
       <c r="F82" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G82" s="4"/>
+      <c r="G82" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H82" s="4"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -10799,7 +11546,9 @@
       <c r="F83" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G83" s="4"/>
+      <c r="G83" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H83" s="4"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -10821,7 +11570,9 @@
       <c r="F84" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G84" s="4"/>
+      <c r="G84" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H84" s="4"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -10843,7 +11594,9 @@
       <c r="F85" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G85" s="4"/>
+      <c r="G85" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H85" s="4"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -10865,7 +11618,9 @@
       <c r="F86" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G86" s="4"/>
+      <c r="G86" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H86" s="4"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -10887,7 +11642,9 @@
       <c r="F87" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G87" s="4"/>
+      <c r="G87" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H87" s="4"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -10909,7 +11666,9 @@
       <c r="F88" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G88" s="4"/>
+      <c r="G88" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H88" s="4"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -10931,7 +11690,9 @@
       <c r="F89" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G89" s="4"/>
+      <c r="G89" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H89" s="4"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -10953,7 +11714,9 @@
       <c r="F90" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G90" s="4"/>
+      <c r="G90" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H90" s="4"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -10975,7 +11738,9 @@
       <c r="F91" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="4"/>
+      <c r="G91" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H91" s="4"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -10997,7 +11762,9 @@
       <c r="F92" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G92" s="4"/>
+      <c r="G92" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H92" s="4"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -11019,7 +11786,9 @@
       <c r="F93" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G93" s="4"/>
+      <c r="G93" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H93" s="4"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -11041,7 +11810,9 @@
       <c r="F94" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G94" s="4"/>
+      <c r="G94" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H94" s="4"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -11063,7 +11834,9 @@
       <c r="F95" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G95" s="4"/>
+      <c r="G95" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H95" s="4"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -11085,7 +11858,9 @@
       <c r="F96" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G96" s="4"/>
+      <c r="G96" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H96" s="4"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -11107,7 +11882,9 @@
       <c r="F97" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G97" s="4"/>
+      <c r="G97" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H97" s="4"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -11129,7 +11906,9 @@
       <c r="F98" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G98" s="4"/>
+      <c r="G98" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H98" s="4"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -11151,7 +11930,9 @@
       <c r="F99" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G99" s="4"/>
+      <c r="G99" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H99" s="4"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -11173,7 +11954,9 @@
       <c r="F100" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="4"/>
+      <c r="G100" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H100" s="4"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -11195,7 +11978,9 @@
       <c r="F101" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G101" s="4"/>
+      <c r="G101" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H101" s="4"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -11217,7 +12002,9 @@
       <c r="F102" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G102" s="4"/>
+      <c r="G102" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H102" s="4"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -11239,7 +12026,9 @@
       <c r="F103" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G103" s="4"/>
+      <c r="G103" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H103" s="4"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -11261,7 +12050,9 @@
       <c r="F104" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G104" s="4"/>
+      <c r="G104" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H104" s="4"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -11283,7 +12074,9 @@
       <c r="F105" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G105" s="4"/>
+      <c r="G105" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H105" s="4"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -11305,7 +12098,9 @@
       <c r="F106" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G106" s="4"/>
+      <c r="G106" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H106" s="4"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -11327,7 +12122,9 @@
       <c r="F107" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G107" s="4"/>
+      <c r="G107" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H107" s="4"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -11349,7 +12146,9 @@
       <c r="F108" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G108" s="4"/>
+      <c r="G108" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H108" s="4"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -11371,7 +12170,9 @@
       <c r="F109" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G109" s="4"/>
+      <c r="G109" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H109" s="4"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -11393,7 +12194,9 @@
       <c r="F110" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G110" s="4"/>
+      <c r="G110" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H110" s="4"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -11415,7 +12218,9 @@
       <c r="F111" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G111" s="4"/>
+      <c r="G111" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H111" s="4"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -11437,7 +12242,9 @@
       <c r="F112" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G112" s="4"/>
+      <c r="G112" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H112" s="4"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -11459,7 +12266,9 @@
       <c r="F113" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G113" s="4"/>
+      <c r="G113" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H113" s="4"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -11481,7 +12290,9 @@
       <c r="F114" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G114" s="4"/>
+      <c r="G114" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H114" s="4"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -11503,7 +12314,9 @@
       <c r="F115" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G115" s="4"/>
+      <c r="G115" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H115" s="4"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -11525,7 +12338,9 @@
       <c r="F116" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G116" s="4"/>
+      <c r="G116" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H116" s="4"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -11547,7 +12362,9 @@
       <c r="F117" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G117" s="4"/>
+      <c r="G117" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H117" s="4"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -11569,7 +12386,9 @@
       <c r="F118" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G118" s="4"/>
+      <c r="G118" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H118" s="4"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -11591,7 +12410,9 @@
       <c r="F119" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G119" s="4"/>
+      <c r="G119" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H119" s="4"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -11613,7 +12434,9 @@
       <c r="F120" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G120" s="4"/>
+      <c r="G120" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H120" s="4"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -11635,7 +12458,9 @@
       <c r="F121" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G121" s="4"/>
+      <c r="G121" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H121" s="4"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -11657,7 +12482,9 @@
       <c r="F122" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G122" s="4"/>
+      <c r="G122" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H122" s="4"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -11679,7 +12506,9 @@
       <c r="F123" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G123" s="4"/>
+      <c r="G123" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H123" s="4"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -11701,7 +12530,9 @@
       <c r="F124" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G124" s="4"/>
+      <c r="G124" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H124" s="4"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -11723,7 +12554,9 @@
       <c r="F125" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G125" s="4"/>
+      <c r="G125" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H125" s="4"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -11745,7 +12578,9 @@
       <c r="F126" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G126" s="4"/>
+      <c r="G126" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H126" s="4"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -11767,7 +12602,9 @@
       <c r="F127" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G127" s="4"/>
+      <c r="G127" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H127" s="4"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -11789,7 +12626,9 @@
       <c r="F128" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G128" s="4"/>
+      <c r="G128" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H128" s="4"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -11811,7 +12650,9 @@
       <c r="F129" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G129" s="4"/>
+      <c r="G129" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H129" s="4"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -11833,7 +12674,9 @@
       <c r="F130" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G130" s="4"/>
+      <c r="G130" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H130" s="4"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -11855,7 +12698,9 @@
       <c r="F131" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G131" s="4"/>
+      <c r="G131" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H131" s="4"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -11877,7 +12722,9 @@
       <c r="F132" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G132" s="4"/>
+      <c r="G132" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H132" s="4"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -11899,7 +12746,9 @@
       <c r="F133" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G133" s="4"/>
+      <c r="G133" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H133" s="4"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -11921,7 +12770,9 @@
       <c r="F134" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G134" s="4"/>
+      <c r="G134" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H134" s="4"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -11943,7 +12794,9 @@
       <c r="F135" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G135" s="4"/>
+      <c r="G135" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H135" s="4"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -11965,7 +12818,9 @@
       <c r="F136" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G136" s="4"/>
+      <c r="G136" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H136" s="4"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -11987,7 +12842,9 @@
       <c r="F137" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G137" s="4"/>
+      <c r="G137" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H137" s="4"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -12009,7 +12866,9 @@
       <c r="F138" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G138" s="4"/>
+      <c r="G138" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H138" s="4"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -12031,7 +12890,9 @@
       <c r="F139" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G139" s="4"/>
+      <c r="G139" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H139" s="4"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -12053,7 +12914,9 @@
       <c r="F140" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G140" s="4"/>
+      <c r="G140" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H140" s="4"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -12075,7 +12938,9 @@
       <c r="F141" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G141" s="4"/>
+      <c r="G141" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H141" s="4"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -12097,7 +12962,9 @@
       <c r="F142" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G142" s="4"/>
+      <c r="G142" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H142" s="4"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -12119,7 +12986,9 @@
       <c r="F143" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G143" s="4"/>
+      <c r="G143" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H143" s="4"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -12141,7 +13010,9 @@
       <c r="F144" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G144" s="4"/>
+      <c r="G144" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="H144" s="4"/>
     </row>
   </sheetData>
@@ -12168,7 +13039,7 @@
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="15.85546875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="11.7109375" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="11" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
@@ -12214,7 +13085,9 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>656</v>
+      </c>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12242,7 +13115,9 @@
       <c r="H3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12270,7 +13145,9 @@
       <c r="H4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="J4" s="4"/>
     </row>
   </sheetData>
@@ -12291,7 +13168,7 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="25.7109375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="5" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
@@ -12313,7 +13190,9 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="C2" s="9" t="s">
+        <v>656</v>
+      </c>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12323,7 +13202,9 @@
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -12333,7 +13214,9 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="D4" s="4"/>
     </row>
   </sheetData>
@@ -12355,7 +13238,7 @@
     <col min="1" max="2" bestFit="true" customWidth="true" style="2" width="25.85546875" collapsed="true"/>
     <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="21.42578125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="8" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
@@ -12389,7 +13272,9 @@
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="F2" s="9" t="s">
+        <v>656</v>
+      </c>
       <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -12408,7 +13293,9 @@
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -12427,7 +13314,9 @@
       <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -12446,7 +13335,9 @@
       <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -12465,7 +13356,9 @@
       <c r="E6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -12484,7 +13377,9 @@
       <c r="E7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -12503,7 +13398,9 @@
       <c r="E8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -12522,7 +13419,9 @@
       <c r="E9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -12541,7 +13440,9 @@
       <c r="E10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="G10" s="4"/>
     </row>
   </sheetData>
@@ -12565,7 +13466,7 @@
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="44.140625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="17.5703125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="8" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
@@ -12599,7 +13500,9 @@
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="F2" s="9" t="s">
+        <v>656</v>
+      </c>
       <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -12616,7 +13519,9 @@
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -12633,7 +13538,9 @@
       <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -12650,7 +13557,9 @@
       <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -12667,7 +13576,9 @@
       <c r="E6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -12684,7 +13595,9 @@
       <c r="E7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -12701,7 +13614,9 @@
       <c r="E8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -12718,7 +13633,9 @@
       <c r="E9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -12735,7 +13652,9 @@
       <c r="E10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -12752,7 +13671,9 @@
       <c r="E11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -12769,7 +13690,9 @@
       <c r="E12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -12786,7 +13709,9 @@
       <c r="E13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -12803,7 +13728,9 @@
       <c r="E14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -12820,7 +13747,9 @@
       <c r="E15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -12837,7 +13766,9 @@
       <c r="E16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -12854,7 +13785,9 @@
       <c r="E17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -12871,7 +13804,9 @@
       <c r="E18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -12888,7 +13823,9 @@
       <c r="E19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -12905,7 +13842,9 @@
       <c r="E20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="G20" s="4"/>
     </row>
   </sheetData>
@@ -12940,7 +13879,7 @@
     <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
     <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="15.0" collapsed="true"/>
     <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="22" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
@@ -13030,7 +13969,9 @@
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
+      <c r="T2" s="9" t="s">
+        <v>656</v>
+      </c>
       <c r="U2" s="9"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -13091,7 +14032,9 @@
       <c r="S3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="4"/>
+      <c r="T3" s="4" t="s">
+        <v>657</v>
+      </c>
       <c r="U3" s="4"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -13152,7 +14095,9 @@
       <c r="S4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T4" s="4"/>
+      <c r="T4" s="4" t="s">
+        <v>657</v>
+      </c>
       <c r="U4" s="4"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -13213,7 +14158,9 @@
       <c r="S5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T5" s="4"/>
+      <c r="T5" s="4" t="s">
+        <v>657</v>
+      </c>
       <c r="U5" s="4"/>
     </row>
   </sheetData>
@@ -13465,7 +14412,7 @@
     <col min="3" max="3" bestFit="true" customWidth="true" style="28" width="18.7109375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="28" width="14.0" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" style="28" width="10.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="28" width="7.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="28" width="7.58203125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" style="28" width="5.85546875" collapsed="true"/>
     <col min="8" max="16384" style="28" width="15.5703125" collapsed="true"/>
   </cols>
@@ -13499,7 +14446,9 @@
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="F2" s="27" t="s">
+        <v>656</v>
+      </c>
       <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13514,7 +14463,9 @@
       <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="8" t="s">
+        <v>657</v>
+      </c>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13529,7 +14480,9 @@
       <c r="E4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="8" t="s">
+        <v>657</v>
+      </c>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13541,7 +14494,9 @@
       <c r="E5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>657</v>
+      </c>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13556,7 +14511,9 @@
       <c r="E6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>657</v>
+      </c>
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13571,7 +14528,9 @@
       <c r="E7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>657</v>
+      </c>
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13586,7 +14545,9 @@
       <c r="E8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>657</v>
+      </c>
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13599,7 +14560,9 @@
       <c r="E9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>657</v>
+      </c>
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13614,7 +14577,9 @@
       <c r="E10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>657</v>
+      </c>
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13627,7 +14592,9 @@
       <c r="E11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>657</v>
+      </c>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13640,7 +14607,9 @@
       <c r="E12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>657</v>
+      </c>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13653,7 +14622,9 @@
       <c r="E13" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>657</v>
+      </c>
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13666,7 +14637,9 @@
       <c r="E14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>657</v>
+      </c>
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13679,7 +14652,9 @@
       <c r="E15" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="8"/>
+      <c r="F15" s="8" t="s">
+        <v>657</v>
+      </c>
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13692,7 +14667,9 @@
       <c r="E16" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>657</v>
+      </c>
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13705,7 +14682,9 @@
       <c r="E17" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="8" t="s">
+        <v>657</v>
+      </c>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13718,7 +14697,9 @@
       <c r="E18" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="8"/>
+      <c r="F18" s="8" t="s">
+        <v>657</v>
+      </c>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13731,7 +14712,9 @@
       <c r="E19" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>657</v>
+      </c>
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13744,7 +14727,9 @@
       <c r="E20" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="8"/>
+      <c r="F20" s="8" t="s">
+        <v>657</v>
+      </c>
       <c r="G20" s="8"/>
     </row>
   </sheetData>
@@ -13757,7 +14742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:F72"/>
     </sheetView>
@@ -13768,7 +14753,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" style="28" width="7.0" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="28" width="18.7109375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="28" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="28" width="7.58203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="28" width="7.5703125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="28" width="5.85546875" collapsed="true"/>
     <col min="7" max="16384" style="28" width="15.5703125" collapsed="true"/>
   </cols>
@@ -14720,7 +15705,7 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="19.140625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="5" max="16384" style="2" width="19.28515625" collapsed="true"/>
   </cols>
@@ -14742,7 +15727,9 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="C2" s="9" t="s">
+        <v>656</v>
+      </c>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -14752,7 +15739,9 @@
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="D3" s="4"/>
     </row>
   </sheetData>
@@ -14790,7 +15779,7 @@
     <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="31.7109375" collapsed="true"/>
     <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="29.140625" collapsed="true"/>
     <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="24" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
@@ -14888,7 +15877,9 @@
       <c r="S2" s="14"/>
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
+      <c r="V2" s="14" t="s">
+        <v>656</v>
+      </c>
       <c r="W2" s="14"/>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14955,7 +15946,9 @@
       <c r="U3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="4"/>
+      <c r="V3" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="W3" s="4"/>
     </row>
   </sheetData>
@@ -14979,7 +15972,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="22.28515625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="25.140625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="7" style="2" width="9.140625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="28.140625" collapsed="true"/>
@@ -15011,7 +16004,9 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>656</v>
+      </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -15027,7 +16022,9 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -15043,7 +16040,9 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -15064,7 +16063,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="15.28515625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="7.58203125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="5.85546875" collapsed="true"/>
     <col min="7" max="7" style="2" width="9.140625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="28.140625" collapsed="true"/>
@@ -15096,7 +16095,9 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>656</v>
+      </c>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -15112,7 +16113,9 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -15128,7 +16131,9 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>641</v>
+      </c>
       <c r="F4" s="4"/>
     </row>
   </sheetData>

--- a/src/test/resources/com/sirion/xls/Client Admin Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Client Admin Suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="645" windowWidth="14805" windowHeight="7470" tabRatio="918" firstSheet="42" activeTab="52"/>
+    <workbookView xWindow="240" yWindow="645" windowWidth="14805" windowHeight="7470" tabRatio="918" firstSheet="44" activeTab="52"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -62,17 +62,16 @@
     <sheet name="ClientUserCreation" sheetId="122" r:id="rId53"/>
     <sheet name="OrganizationProperties" sheetId="52" r:id="rId54"/>
     <sheet name="QuickLinkContentControls" sheetId="131" r:id="rId55"/>
-    <sheet name="ReportContentControls" sheetId="132" r:id="rId56"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Test Cases'!$C$1:$C$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Test Cases'!$C$1:$C$53</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3105" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="629">
   <si>
     <t>TCID</t>
   </si>
@@ -1375,6 +1374,9 @@
     <t>Child Service Levels</t>
   </si>
   <si>
+    <t>English - India</t>
+  </si>
+  <si>
     <t>Clients</t>
   </si>
   <si>
@@ -1693,6 +1695,9 @@
     <t>PO Reject</t>
   </si>
   <si>
+    <t>Automation Supplier</t>
+  </si>
+  <si>
     <t>Clients - Workflow</t>
   </si>
   <si>
@@ -1888,7 +1893,28 @@
     <t>Arora</t>
   </si>
   <si>
+    <t>ajay_user</t>
+  </si>
+  <si>
+    <t>anay_user</t>
+  </si>
+  <si>
+    <t>gaurav_user</t>
+  </si>
+  <si>
+    <t>ajay_user@sirionqa.office</t>
+  </si>
+  <si>
+    <t>anay_user@sirionqa.office</t>
+  </si>
+  <si>
+    <t>gaurav_user@sirionqa.office</t>
+  </si>
+  <si>
     <t>Supplier</t>
+  </si>
+  <si>
+    <t>aus</t>
   </si>
   <si>
     <t>entityName</t>
@@ -1976,279 +2002,6 @@
   </si>
   <si>
     <t>QuickLinkContentControls</t>
-  </si>
-  <si>
-    <t>Bi-Monthly (Date)</t>
-  </si>
-  <si>
-    <t>Bi-Monthly (Day)</t>
-  </si>
-  <si>
-    <t>Raise Issue</t>
-  </si>
-  <si>
-    <t>Reject Before Acknowledge</t>
-  </si>
-  <si>
-    <t>Acknowledge</t>
-  </si>
-  <si>
-    <t>Assign</t>
-  </si>
-  <si>
-    <t>Reject</t>
-  </si>
-  <si>
-    <t>ReportContentControls</t>
-  </si>
-  <si>
-    <t>reportName</t>
-  </si>
-  <si>
-    <t>Suppliers - Tracker</t>
-  </si>
-  <si>
-    <t>Master Obligations - Tracker</t>
-  </si>
-  <si>
-    <t>Master Obligations - Triggered</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>Child Obligations - Critical Deliverables</t>
-  </si>
-  <si>
-    <t>Child Obligations - Financial Impacted Milestones</t>
-  </si>
-  <si>
-    <t>Child Obligations - Upcoming and Rejected Milestones</t>
-  </si>
-  <si>
-    <t>Child Obligations - Aging</t>
-  </si>
-  <si>
-    <t>Child Obligations - Aging Trend</t>
-  </si>
-  <si>
-    <t>Child Obligations - Cycle Time</t>
-  </si>
-  <si>
-    <t>Child Obligations - Cycle Time Trend</t>
-  </si>
-  <si>
-    <t>Child Obligations - Financial Impact</t>
-  </si>
-  <si>
-    <t>Child Obligations - Overdue</t>
-  </si>
-  <si>
-    <t>Child Obligations - Rejected</t>
-  </si>
-  <si>
-    <t>Child Obligations - Rejected At Any Point</t>
-  </si>
-  <si>
-    <t>Child Obligations - Overdue At Any Point</t>
-  </si>
-  <si>
-    <t>Child Obligations - Tracker</t>
-  </si>
-  <si>
-    <t>Child Obligations - Upcoming</t>
-  </si>
-  <si>
-    <t>SKIP</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>Master Service Levels - Details</t>
-  </si>
-  <si>
-    <t>Child Service Level - Detailed Performance</t>
-  </si>
-  <si>
-    <t>Child Service Levels - Rejected At Any Point</t>
-  </si>
-  <si>
-    <t>Child Service Levels - Overdue At Any Point</t>
-  </si>
-  <si>
-    <t>Child Service Levels - Overdue</t>
-  </si>
-  <si>
-    <t>Child Service Levels - Rejected</t>
-  </si>
-  <si>
-    <t>Child Service Levels - Performance</t>
-  </si>
-  <si>
-    <t>Interpretations - Aging</t>
-  </si>
-  <si>
-    <t>Interpretations - Cycle Time</t>
-  </si>
-  <si>
-    <t>Interpretations - Volume Trend</t>
-  </si>
-  <si>
-    <t>Interpretations - FAQ</t>
-  </si>
-  <si>
-    <t>Interpretations - Tracker</t>
-  </si>
-  <si>
-    <t>Issues - With Financial Impact</t>
-  </si>
-  <si>
-    <t>Issues - Tracker</t>
-  </si>
-  <si>
-    <t>Issues - High Priority</t>
-  </si>
-  <si>
-    <t>Issues - Aging</t>
-  </si>
-  <si>
-    <t>Issues - Cycle Time</t>
-  </si>
-  <si>
-    <t>Issues - By Governance Body</t>
-  </si>
-  <si>
-    <t>Issues - Volume Trend</t>
-  </si>
-  <si>
-    <t>ISSUES - REJECTED AT ANY POINT</t>
-  </si>
-  <si>
-    <t>ISSUES - OVERDUE AT ANY POINT</t>
-  </si>
-  <si>
-    <t>ISSUES - ESCALATED TO DISPUTE AT ANY POINT</t>
-  </si>
-  <si>
-    <t>Issues - Cycle Time Trend</t>
-  </si>
-  <si>
-    <t>Issues - Aging Trend</t>
-  </si>
-  <si>
-    <t>Issues - New</t>
-  </si>
-  <si>
-    <t>Issues - Overdue, Escalated, High Aging</t>
-  </si>
-  <si>
-    <t>Actions - New</t>
-  </si>
-  <si>
-    <t>Actions - Volume Trend</t>
-  </si>
-  <si>
-    <t>Actions - With Financial Impact</t>
-  </si>
-  <si>
-    <t>Actions - High Priority</t>
-  </si>
-  <si>
-    <t>Actions - Cycle Time Trend</t>
-  </si>
-  <si>
-    <t>Actions - Cycle Time</t>
-  </si>
-  <si>
-    <t>Actions - Aging Trend</t>
-  </si>
-  <si>
-    <t>Actions - Aging</t>
-  </si>
-  <si>
-    <t>Actions - By Governance Body</t>
-  </si>
-  <si>
-    <t>Actions - Overdue, High Aging</t>
-  </si>
-  <si>
-    <t>Actions - Tracker</t>
-  </si>
-  <si>
-    <t>ACTIONS - OVERDUE AT ANY POINT</t>
-  </si>
-  <si>
-    <t>ACTIONS - REJECTED AT ANY POINT</t>
-  </si>
-  <si>
-    <t>Contracts - Expiring Within One Year</t>
-  </si>
-  <si>
-    <t>Contracts - Financial Information</t>
-  </si>
-  <si>
-    <t>Contract - PIPELINE REPORT</t>
-  </si>
-  <si>
-    <t>Contract - Deal summary report</t>
-  </si>
-  <si>
-    <t>Contract - Top deal/monthly status report</t>
-  </si>
-  <si>
-    <t>Contract - PIPELINE REPORT - NEW</t>
-  </si>
-  <si>
-    <t>Contract - HSSO 12 MONTH PIPELINE REPORT</t>
-  </si>
-  <si>
-    <t>Change Requests - Tracker</t>
-  </si>
-  <si>
-    <t>Change Request - Lead time</t>
-  </si>
-  <si>
-    <t>Change Requests - Aging</t>
-  </si>
-  <si>
-    <t>Change Requests - Cycle Time</t>
-  </si>
-  <si>
-    <t>Change Requests - High Priority</t>
-  </si>
-  <si>
-    <t>Change Requests - Aging Trend</t>
-  </si>
-  <si>
-    <t>Change Requests - Cycle Time Trend</t>
-  </si>
-  <si>
-    <t>English (India)</t>
-  </si>
-  <si>
-    <t>Ajay Supplier</t>
-  </si>
-  <si>
-    <t>ajay</t>
-  </si>
-  <si>
-    <t>ajay_user1@sirionqa.office</t>
-  </si>
-  <si>
-    <t>anay_user1@sirionqa.office</t>
-  </si>
-  <si>
-    <t>gaurav_user1@sirionqa.office</t>
-  </si>
-  <si>
-    <t>ajay_user</t>
-  </si>
-  <si>
-    <t>gaurav_user</t>
-  </si>
-  <si>
-    <t>anay_user</t>
   </si>
 </sst>
 </file>
@@ -2338,7 +2091,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2422,12 +2175,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2486,6 +2250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2792,11 +2557,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C57"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3441,24 +3206,22 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C54" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D54" s="25" t="s">
-        <v>632</v>
-      </c>
+      <c r="D54" s="25"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C55" s="25" t="s">
         <v>3</v>
@@ -3466,33 +3229,18 @@
       <c r="D55" s="25"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
-        <v>619</v>
-      </c>
-      <c r="B56" s="25" t="s">
-        <v>619</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="25" t="s">
-        <v>627</v>
-      </c>
-      <c r="B57" s="25" t="s">
-        <v>627</v>
-      </c>
-      <c r="C57" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" s="25"/>
+      <c r="A56" s="31" t="s">
+        <v>628</v>
+      </c>
+      <c r="B56" s="31" t="s">
+        <v>628</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C57"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3544,9 +3292,7 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
-        <v>647</v>
-      </c>
+      <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3562,9 +3308,7 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3580,9 +3324,7 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -3637,9 +3379,7 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
-        <v>647</v>
-      </c>
+      <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3655,9 +3395,7 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3673,9 +3411,7 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -3733,9 +3469,7 @@
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
-        <v>647</v>
-      </c>
+      <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3754,9 +3488,7 @@
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3775,9 +3507,7 @@
       <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
   </sheetData>
@@ -3842,9 +3572,7 @@
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
-      <c r="G2" s="9" t="s">
-        <v>647</v>
-      </c>
+      <c r="G2" s="9"/>
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3866,9 +3594,7 @@
       <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3890,9 +3616,7 @@
       <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
   </sheetData>
@@ -3944,9 +3668,7 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
-        <v>647</v>
-      </c>
+      <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3962,9 +3684,7 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3980,9 +3700,7 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -4036,9 +3754,7 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
-        <v>647</v>
-      </c>
+      <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4054,9 +3770,7 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4072,9 +3786,7 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -4127,9 +3839,7 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
-        <v>647</v>
-      </c>
+      <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4145,9 +3855,7 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4163,9 +3871,7 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -4218,9 +3924,7 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
-        <v>647</v>
-      </c>
+      <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4236,9 +3940,7 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4254,9 +3956,7 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -4312,9 +4012,7 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
-        <v>647</v>
-      </c>
+      <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4330,9 +4028,7 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4348,9 +4044,7 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -4405,9 +4099,7 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
-        <v>647</v>
-      </c>
+      <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4423,9 +4115,7 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4441,9 +4131,7 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -4501,9 +4189,7 @@
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="14" t="s">
-        <v>647</v>
-      </c>
+      <c r="F2" s="14"/>
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -4522,9 +4208,7 @@
       <c r="E3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>632</v>
-      </c>
+      <c r="F3" s="13"/>
       <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4543,9 +4227,7 @@
       <c r="E4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>632</v>
-      </c>
+      <c r="F4" s="13"/>
       <c r="G4" s="13"/>
     </row>
   </sheetData>
@@ -4600,9 +4282,7 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
-        <v>647</v>
-      </c>
+      <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4618,9 +4298,7 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4636,9 +4314,7 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -4693,9 +4369,7 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
-        <v>647</v>
-      </c>
+      <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4711,9 +4385,7 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4729,9 +4401,7 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -4786,9 +4456,7 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
-        <v>647</v>
-      </c>
+      <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4804,9 +4472,7 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4822,9 +4488,7 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -4879,9 +4543,7 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
-        <v>647</v>
-      </c>
+      <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4897,9 +4559,7 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4915,9 +4575,7 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -4972,9 +4630,7 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
-        <v>647</v>
-      </c>
+      <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4990,9 +4646,7 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5008,9 +4662,7 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -5064,9 +4716,7 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
-        <v>647</v>
-      </c>
+      <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5082,9 +4732,7 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5100,9 +4748,7 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -5154,9 +4800,7 @@
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="14" t="s">
-        <v>647</v>
-      </c>
+      <c r="E2" s="14"/>
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5172,9 +4816,7 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5190,9 +4832,7 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -5245,9 +4885,7 @@
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="14" t="s">
-        <v>647</v>
-      </c>
+      <c r="E2" s="14"/>
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5263,9 +4901,7 @@
       <c r="D3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>632</v>
-      </c>
+      <c r="E3" s="13"/>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5281,9 +4917,7 @@
       <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>632</v>
-      </c>
+      <c r="E4" s="13"/>
       <c r="F4" s="13"/>
     </row>
   </sheetData>
@@ -5336,9 +4970,7 @@
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="14" t="s">
-        <v>647</v>
-      </c>
+      <c r="E2" s="14"/>
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5354,9 +4986,7 @@
       <c r="D3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>632</v>
-      </c>
+      <c r="E3" s="13"/>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5372,9 +5002,7 @@
       <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>632</v>
-      </c>
+      <c r="E4" s="13"/>
       <c r="F4" s="13"/>
     </row>
   </sheetData>
@@ -5427,9 +5055,7 @@
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="14" t="s">
-        <v>647</v>
-      </c>
+      <c r="E2" s="14"/>
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5445,9 +5071,7 @@
       <c r="D3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>632</v>
-      </c>
+      <c r="E3" s="13"/>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5463,9 +5087,7 @@
       <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>632</v>
-      </c>
+      <c r="E4" s="13"/>
       <c r="F4" s="13"/>
     </row>
   </sheetData>
@@ -5523,9 +5145,7 @@
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="14" t="s">
-        <v>647</v>
-      </c>
+      <c r="F2" s="14"/>
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -5544,9 +5164,7 @@
       <c r="E3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>632</v>
-      </c>
+      <c r="F3" s="13"/>
       <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -5565,9 +5183,7 @@
       <c r="E4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>632</v>
-      </c>
+      <c r="F4" s="13"/>
       <c r="G4" s="13"/>
     </row>
   </sheetData>
@@ -5619,9 +5235,7 @@
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="14" t="s">
-        <v>647</v>
-      </c>
+      <c r="E2" s="14"/>
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5637,9 +5251,7 @@
       <c r="D3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>632</v>
-      </c>
+      <c r="E3" s="13"/>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5655,9 +5267,7 @@
       <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>632</v>
-      </c>
+      <c r="E4" s="13"/>
       <c r="F4" s="13"/>
     </row>
   </sheetData>
@@ -5709,9 +5319,7 @@
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="14" t="s">
-        <v>647</v>
-      </c>
+      <c r="E2" s="14"/>
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5727,9 +5335,7 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5745,9 +5351,7 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -5800,9 +5404,7 @@
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="14" t="s">
-        <v>647</v>
-      </c>
+      <c r="E2" s="14"/>
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5818,9 +5420,7 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5836,9 +5436,7 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -5890,9 +5488,7 @@
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="14" t="s">
-        <v>647</v>
-      </c>
+      <c r="E2" s="14"/>
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5908,9 +5504,7 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5926,9 +5520,7 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -5980,9 +5572,7 @@
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="14" t="s">
-        <v>647</v>
-      </c>
+      <c r="E2" s="14"/>
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5998,9 +5588,7 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6016,9 +5604,7 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -6070,9 +5656,7 @@
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="14" t="s">
-        <v>647</v>
-      </c>
+      <c r="E2" s="14"/>
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6088,9 +5672,7 @@
       <c r="D3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>632</v>
-      </c>
+      <c r="E3" s="13"/>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6106,9 +5688,7 @@
       <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>632</v>
-      </c>
+      <c r="E4" s="13"/>
       <c r="F4" s="13"/>
     </row>
   </sheetData>
@@ -6160,9 +5740,7 @@
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="14" t="s">
-        <v>647</v>
-      </c>
+      <c r="E2" s="14"/>
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6178,9 +5756,7 @@
       <c r="D3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>632</v>
-      </c>
+      <c r="E3" s="13"/>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6196,9 +5772,7 @@
       <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>632</v>
-      </c>
+      <c r="E4" s="13"/>
       <c r="F4" s="13"/>
     </row>
   </sheetData>
@@ -6251,9 +5825,7 @@
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="14" t="s">
-        <v>647</v>
-      </c>
+      <c r="E2" s="14"/>
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6269,9 +5841,7 @@
       <c r="D3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>632</v>
-      </c>
+      <c r="E3" s="13"/>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6287,9 +5857,7 @@
       <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>632</v>
-      </c>
+      <c r="E4" s="13"/>
       <c r="F4" s="13"/>
     </row>
   </sheetData>
@@ -6347,9 +5915,7 @@
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="14" t="s">
-        <v>647</v>
-      </c>
+      <c r="F2" s="14"/>
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -6368,9 +5934,7 @@
       <c r="E3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>632</v>
-      </c>
+      <c r="F3" s="13"/>
       <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -6389,9 +5953,7 @@
       <c r="E4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>632</v>
-      </c>
+      <c r="F4" s="13"/>
       <c r="G4" s="13"/>
     </row>
   </sheetData>
@@ -6443,9 +6005,7 @@
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="14" t="s">
-        <v>647</v>
-      </c>
+      <c r="E2" s="14"/>
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6461,9 +6021,7 @@
       <c r="D3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>632</v>
-      </c>
+      <c r="E3" s="13"/>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6479,9 +6037,7 @@
       <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>632</v>
-      </c>
+      <c r="E4" s="13"/>
       <c r="F4" s="13"/>
     </row>
   </sheetData>
@@ -6545,9 +6101,7 @@
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
-      <c r="G2" s="19" t="s">
-        <v>647</v>
-      </c>
+      <c r="G2" s="19"/>
       <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -6569,9 +6123,7 @@
       <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -6593,9 +6145,7 @@
       <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
   </sheetData>
@@ -6643,9 +6193,7 @@
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
-      <c r="D2" s="9" t="s">
-        <v>647</v>
-      </c>
+      <c r="D2" s="9"/>
       <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -6658,9 +6206,7 @@
       <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6673,9 +6219,7 @@
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -6688,9 +6232,7 @@
       <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
   </sheetData>
@@ -6738,9 +6280,7 @@
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
-      <c r="D2" s="9" t="s">
-        <v>647</v>
-      </c>
+      <c r="D2" s="9"/>
       <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -6753,9 +6293,7 @@
       <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6768,9 +6306,7 @@
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
   </sheetData>
@@ -6842,9 +6378,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="9" t="s">
-        <v>647</v>
-      </c>
+      <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -6872,9 +6406,7 @@
       <c r="H3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
   </sheetData>
@@ -6884,7 +6416,7 @@
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6896,7 +6428,7 @@
     <col min="1" max="2" width="17" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="15.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="10" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="5.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="16384" width="16.5703125" style="2" collapsed="1"/>
   </cols>
@@ -6926,9 +6458,7 @@
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="14" t="s">
-        <v>647</v>
-      </c>
+      <c r="E2" s="14"/>
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6944,9 +6474,7 @@
       <c r="D3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>632</v>
-      </c>
+      <c r="E3" s="13"/>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6962,46 +6490,8 @@
       <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>632</v>
-      </c>
+      <c r="E4" s="13"/>
       <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>632</v>
-      </c>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>632</v>
-      </c>
-      <c r="F6" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7052,9 +6542,7 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
-        <v>647</v>
-      </c>
+      <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7070,9 +6558,7 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -7088,9 +6574,7 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -7141,9 +6625,7 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
-        <v>647</v>
-      </c>
+      <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7159,9 +6641,7 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -7177,9 +6657,7 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -7189,10 +6667,10 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -7227,74 +6705,64 @@
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
-      <c r="D2" s="9" t="s">
-        <v>647</v>
-      </c>
+      <c r="D2" s="9"/>
       <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>422</v>
@@ -7302,14 +6770,12 @@
       <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>122</v>
@@ -7317,29 +6783,25 @@
       <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>124</v>
@@ -7347,14 +6809,12 @@
       <c r="C10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>61</v>
@@ -7362,14 +6822,12 @@
       <c r="C11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>62</v>
@@ -7377,149 +6835,129 @@
       <c r="C12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>119</v>
@@ -7527,59 +6965,51 @@
       <c r="C22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>62</v>
@@ -7587,14 +7017,12 @@
       <c r="C26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>61</v>
@@ -7602,44 +7030,38 @@
       <c r="C27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>119</v>
@@ -7647,74 +7069,64 @@
       <c r="C30" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>61</v>
@@ -7722,29 +7134,25 @@
       <c r="C35" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D36" s="4"/>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>61</v>
@@ -7752,74 +7160,64 @@
       <c r="C37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D37" s="4"/>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>61</v>
@@ -7827,595 +7225,398 @@
       <c r="C42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>622</v>
+        <v>528</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>623</v>
+        <v>529</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D45" s="4"/>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>624</v>
+        <v>530</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D46" s="4"/>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>625</v>
+        <v>511</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D49" s="4"/>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>626</v>
+        <v>470</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D50" s="4"/>
       <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D51" s="4"/>
       <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D52" s="4"/>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D53" s="4"/>
       <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D54" s="4"/>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>529</v>
+        <v>62</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D55" s="4"/>
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>510</v>
+        <v>473</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D56" s="4"/>
       <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D57" s="4"/>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>436</v>
+      <c r="A58" s="4" t="s">
+        <v>322</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>506</v>
+        <v>328</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D58" s="4"/>
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>436</v>
+      <c r="A59" s="4" t="s">
+        <v>322</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>469</v>
+        <v>329</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D59" s="4"/>
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>436</v>
+      <c r="A60" s="4" t="s">
+        <v>322</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>507</v>
+        <v>330</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D60" s="4"/>
       <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>436</v>
+      <c r="A61" s="4" t="s">
+        <v>322</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>508</v>
+        <v>331</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D61" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D61" s="4"/>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>436</v>
+      <c r="A62" s="4" t="s">
+        <v>322</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>518</v>
+        <v>332</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D62" s="4"/>
       <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>436</v>
+      <c r="A63" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>517</v>
+        <v>396</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D63" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D63" s="4"/>
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>436</v>
+      <c r="A64" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>62</v>
+        <v>397</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D64" s="4"/>
       <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>436</v>
+      <c r="A65" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>472</v>
+        <v>398</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D65" s="4"/>
       <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>436</v>
+      <c r="A66" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>519</v>
+        <v>399</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D66" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D66" s="4"/>
       <c r="E66" s="4"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>322</v>
+        <v>389</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>328</v>
+        <v>400</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D67" s="4"/>
       <c r="E67" s="4"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>322</v>
+        <v>390</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>329</v>
+        <v>401</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D68" s="4"/>
       <c r="E68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>322</v>
+        <v>390</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>330</v>
+        <v>402</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D69" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D69" s="4"/>
       <c r="E69" s="4"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>322</v>
+        <v>390</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>331</v>
+        <v>403</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D70" s="4"/>
       <c r="E70" s="4"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>322</v>
+        <v>390</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>332</v>
+        <v>404</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D71" s="4"/>
       <c r="E71" s="4"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="D72" s="4"/>
       <c r="E72" s="4"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="E73" s="4"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="E74" s="4"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="E75" s="4"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="E76" s="4"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="E77" s="4"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="E78" s="4"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="E79" s="4"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="E80" s="4"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="E81" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8501,20 +7702,18 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
-      <c r="L2" s="9" t="s">
-        <v>647</v>
-      </c>
+      <c r="L2" s="9"/>
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -8540,9 +7739,7 @@
       <c r="K3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -8577,9 +7774,7 @@
       <c r="K4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -8587,10 +7782,10 @@
         <v>414</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D5" s="4">
         <v>3</v>
@@ -8614,9 +7809,7 @@
       <c r="K5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -8624,10 +7817,10 @@
         <v>423</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D6" s="4">
         <v>4</v>
@@ -8651,20 +7844,18 @@
       <c r="K6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D7" s="4">
         <v>5</v>
@@ -8688,20 +7879,18 @@
       <c r="K7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D8" s="4">
         <v>6</v>
@@ -8725,20 +7914,18 @@
       <c r="K8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D9" s="4">
         <v>7</v>
@@ -8762,20 +7949,18 @@
       <c r="K9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D10" s="4">
         <v>8</v>
@@ -8799,20 +7984,18 @@
       <c r="K10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D11" s="4">
         <v>9</v>
@@ -8836,20 +8019,18 @@
       <c r="K11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="L11" s="4"/>
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D12" s="4">
         <v>10</v>
@@ -8873,20 +8054,18 @@
       <c r="K12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D13" s="4">
         <v>11</v>
@@ -8910,20 +8089,18 @@
       <c r="K13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D14" s="4">
         <v>12</v>
@@ -8947,20 +8124,18 @@
       <c r="K14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D15" s="4">
         <v>13</v>
@@ -8984,20 +8159,18 @@
       <c r="K15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D16" s="4">
         <v>14</v>
@@ -9021,20 +8194,18 @@
       <c r="K16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L16" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D17" s="4">
         <v>15</v>
@@ -9058,9 +8229,7 @@
       <c r="K17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -9068,10 +8237,10 @@
         <v>322</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D18" s="4">
         <v>16</v>
@@ -9095,9 +8264,7 @@
       <c r="K18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -9105,10 +8272,10 @@
         <v>389</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D19" s="4">
         <v>17</v>
@@ -9132,9 +8299,7 @@
       <c r="K19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L19" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -9142,10 +8307,10 @@
         <v>390</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D20" s="4">
         <v>18</v>
@@ -9169,9 +8334,7 @@
       <c r="K20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="L20" s="4"/>
       <c r="M20" s="4"/>
     </row>
   </sheetData>
@@ -9185,7 +8348,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9214,21 +8377,17 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="9" t="s">
-        <v>647</v>
-      </c>
+      <c r="C2" s="9"/>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>648</v>
-      </c>
+      <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -9238,9 +8397,7 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>648</v>
-      </c>
+      <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -9250,9 +8407,7 @@
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>648</v>
-      </c>
+      <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -9262,141 +8417,117 @@
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>648</v>
-      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -9406,9 +8537,7 @@
       <c r="B18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -9418,9 +8547,7 @@
       <c r="B19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -9430,9 +8557,7 @@
       <c r="B20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
   </sheetData>
@@ -9446,7 +8571,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9493,9 +8618,7 @@
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
-      <c r="G2" s="9" t="s">
-        <v>647</v>
-      </c>
+      <c r="G2" s="9"/>
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -9506,10 +8629,10 @@
         <v>412</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>393</v>
@@ -9517,9 +8640,7 @@
       <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -9530,10 +8651,10 @@
         <v>413</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>63</v>
@@ -9541,9 +8662,7 @@
       <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -9565,9 +8684,7 @@
       <c r="F5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -9589,9 +8706,7 @@
       <c r="F6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -9613,9 +8728,7 @@
       <c r="F7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -9637,9 +8750,7 @@
       <c r="F8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -9661,9 +8772,7 @@
       <c r="F9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -9685,9 +8794,7 @@
       <c r="F10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -9709,9 +8816,7 @@
       <c r="F11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -9733,9 +8838,7 @@
       <c r="F12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -9757,9 +8860,7 @@
       <c r="F13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -9781,9 +8882,7 @@
       <c r="F14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -9805,9 +8904,7 @@
       <c r="F15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -9829,9 +8926,7 @@
       <c r="F16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -9853,9 +8948,7 @@
       <c r="F17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -9877,9 +8970,7 @@
       <c r="F18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -9901,9 +8992,7 @@
       <c r="F19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -9925,9 +9014,7 @@
       <c r="F20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -9949,9 +9036,7 @@
       <c r="F21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -9973,9 +9058,7 @@
       <c r="F22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -9997,9 +9080,7 @@
       <c r="F23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -10021,9 +9102,7 @@
       <c r="F24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -10045,9 +9124,7 @@
       <c r="F25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -10069,9 +9146,7 @@
       <c r="F26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -10093,9 +9168,7 @@
       <c r="F27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -10117,9 +9190,7 @@
       <c r="F28" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -10141,9 +9212,7 @@
       <c r="F29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -10165,9 +9234,7 @@
       <c r="F30" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -10178,10 +9245,10 @@
         <v>119</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>63</v>
@@ -10189,23 +9256,21 @@
       <c r="F31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>393</v>
@@ -10213,23 +9278,21 @@
       <c r="F32" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>393</v>
@@ -10237,23 +9300,21 @@
       <c r="F33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G33" s="4"/>
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>394</v>
@@ -10261,23 +9322,21 @@
       <c r="F34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G34" s="4"/>
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>394</v>
@@ -10285,9 +9344,7 @@
       <c r="F35" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -10298,10 +9355,10 @@
         <v>62</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>63</v>
@@ -10309,9 +9366,7 @@
       <c r="F36" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -10322,10 +9377,10 @@
         <v>415</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>63</v>
@@ -10333,9 +9388,7 @@
       <c r="F37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -10346,10 +9399,10 @@
         <v>422</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>393</v>
@@ -10357,9 +9410,7 @@
       <c r="F38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G38" s="4"/>
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -10370,10 +9421,10 @@
         <v>61</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>394</v>
@@ -10381,23 +9432,21 @@
       <c r="F39" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G39" s="4"/>
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>394</v>
@@ -10405,9 +9454,7 @@
       <c r="F40" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G40" s="4"/>
       <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -10418,10 +9465,10 @@
         <v>62</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>63</v>
@@ -10429,9 +9476,7 @@
       <c r="F41" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G41" s="4"/>
       <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -10442,10 +9487,10 @@
         <v>119</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>63</v>
@@ -10453,9 +9498,7 @@
       <c r="F42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G42" s="4"/>
       <c r="H42" s="4"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -10466,10 +9509,10 @@
         <v>122</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>393</v>
@@ -10477,9 +9520,7 @@
       <c r="F43" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G43" s="4"/>
       <c r="H43" s="4"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -10490,10 +9531,10 @@
         <v>123</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>63</v>
@@ -10501,9 +9542,7 @@
       <c r="F44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G44" s="4"/>
       <c r="H44" s="4"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -10514,10 +9553,10 @@
         <v>124</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>393</v>
@@ -10525,9 +9564,7 @@
       <c r="F45" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G45" s="4"/>
       <c r="H45" s="4"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -10538,10 +9575,10 @@
         <v>61</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>394</v>
@@ -10549,9 +9586,7 @@
       <c r="F46" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G46" s="4"/>
       <c r="H46" s="4"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -10562,10 +9597,10 @@
         <v>62</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>63</v>
@@ -10573,23 +9608,21 @@
       <c r="F47" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G47" s="4"/>
       <c r="H47" s="4"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>63</v>
@@ -10597,23 +9630,21 @@
       <c r="F48" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G48" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G48" s="4"/>
       <c r="H48" s="4"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>395</v>
@@ -10621,23 +9652,21 @@
       <c r="F49" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G49" s="4"/>
       <c r="H49" s="4"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>63</v>
@@ -10645,23 +9674,21 @@
       <c r="F50" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G50" s="4"/>
       <c r="H50" s="4"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>394</v>
@@ -10669,23 +9696,21 @@
       <c r="F51" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G51" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G51" s="4"/>
       <c r="H51" s="4"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>393</v>
@@ -10693,23 +9718,21 @@
       <c r="F52" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G52" s="4"/>
       <c r="H52" s="4"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>63</v>
@@ -10717,9 +9740,7 @@
       <c r="F53" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G53" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G53" s="4"/>
       <c r="H53" s="4"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -10730,10 +9751,10 @@
         <v>119</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>63</v>
@@ -10741,9 +9762,7 @@
       <c r="F54" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G54" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G54" s="4"/>
       <c r="H54" s="4"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -10754,10 +9773,10 @@
         <v>422</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>393</v>
@@ -10765,23 +9784,21 @@
       <c r="F55" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G55" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G55" s="4"/>
       <c r="H55" s="4"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>394</v>
@@ -10789,9 +9806,7 @@
       <c r="F56" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G56" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G56" s="4"/>
       <c r="H56" s="4"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -10802,10 +9817,10 @@
         <v>62</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>63</v>
@@ -10813,9 +9828,7 @@
       <c r="F57" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G57" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G57" s="4"/>
       <c r="H57" s="4"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -10826,10 +9839,10 @@
         <v>61</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>394</v>
@@ -10837,23 +9850,21 @@
       <c r="F58" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G58" s="4"/>
       <c r="H58" s="4"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>394</v>
@@ -10861,23 +9872,21 @@
       <c r="F59" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G59" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G59" s="4"/>
       <c r="H59" s="4"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>63</v>
@@ -10885,23 +9894,21 @@
       <c r="F60" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G60" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G60" s="4"/>
       <c r="H60" s="4"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>393</v>
@@ -10909,23 +9916,21 @@
       <c r="F61" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G61" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G61" s="4"/>
       <c r="H61" s="4"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>393</v>
@@ -10933,23 +9938,21 @@
       <c r="F62" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G62" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G62" s="4"/>
       <c r="H62" s="4"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>393</v>
@@ -10957,23 +9960,21 @@
       <c r="F63" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G63" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G63" s="4"/>
       <c r="H63" s="4"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>393</v>
@@ -10981,23 +9982,21 @@
       <c r="F64" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G64" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>393</v>
@@ -11005,23 +10004,21 @@
       <c r="F65" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G65" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G65" s="4"/>
       <c r="H65" s="4"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>393</v>
@@ -11029,23 +10026,21 @@
       <c r="F66" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G66" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G66" s="4"/>
       <c r="H66" s="4"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>393</v>
@@ -11053,23 +10048,21 @@
       <c r="F67" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G67" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G67" s="4"/>
       <c r="H67" s="4"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>393</v>
@@ -11077,23 +10070,21 @@
       <c r="F68" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G68" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G68" s="4"/>
       <c r="H68" s="4"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>63</v>
@@ -11101,23 +10092,21 @@
       <c r="F69" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G69" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G69" s="4"/>
       <c r="H69" s="4"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>393</v>
@@ -11125,23 +10114,21 @@
       <c r="F70" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G70" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G70" s="4"/>
       <c r="H70" s="4"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>63</v>
@@ -11149,9 +10136,7 @@
       <c r="F71" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G71" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G71" s="4"/>
       <c r="H71" s="4"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -11162,10 +10147,10 @@
         <v>119</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>63</v>
@@ -11173,23 +10158,21 @@
       <c r="F72" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G72" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G72" s="4"/>
       <c r="H72" s="4"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>63</v>
@@ -11197,23 +10180,21 @@
       <c r="F73" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G73" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G73" s="4"/>
       <c r="H73" s="4"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>393</v>
@@ -11221,23 +10202,21 @@
       <c r="F74" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G74" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G74" s="4"/>
       <c r="H74" s="4"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>63</v>
@@ -11245,9 +10224,7 @@
       <c r="F75" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G75" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G75" s="4"/>
       <c r="H75" s="4"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -11258,10 +10235,10 @@
         <v>62</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>63</v>
@@ -11269,9 +10246,7 @@
       <c r="F76" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G76" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G76" s="4"/>
       <c r="H76" s="4"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -11282,10 +10257,10 @@
         <v>61</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>394</v>
@@ -11293,23 +10268,21 @@
       <c r="F77" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G77" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G77" s="4"/>
       <c r="H77" s="4"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>63</v>
@@ -11317,23 +10290,21 @@
       <c r="F78" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G78" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G78" s="4"/>
       <c r="H78" s="4"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>63</v>
@@ -11341,23 +10312,21 @@
       <c r="F79" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G79" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G79" s="4"/>
       <c r="H79" s="4"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>63</v>
@@ -11365,23 +10334,21 @@
       <c r="F80" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G80" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G80" s="4"/>
       <c r="H80" s="4"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>63</v>
@@ -11389,23 +10356,21 @@
       <c r="F81" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G81" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G81" s="4"/>
       <c r="H81" s="4"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>63</v>
@@ -11413,23 +10378,21 @@
       <c r="F82" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G82" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G82" s="4"/>
       <c r="H82" s="4"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>63</v>
@@ -11437,23 +10400,21 @@
       <c r="F83" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G83" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G83" s="4"/>
       <c r="H83" s="4"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>63</v>
@@ -11461,23 +10422,21 @@
       <c r="F84" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G84" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G84" s="4"/>
       <c r="H84" s="4"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>393</v>
@@ -11485,23 +10444,21 @@
       <c r="F85" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G85" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G85" s="4"/>
       <c r="H85" s="4"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>393</v>
@@ -11509,23 +10466,21 @@
       <c r="F86" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G86" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G86" s="4"/>
       <c r="H86" s="4"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>393</v>
@@ -11533,23 +10488,21 @@
       <c r="F87" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G87" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G87" s="4"/>
       <c r="H87" s="4"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>394</v>
@@ -11557,23 +10510,21 @@
       <c r="F88" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G88" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G88" s="4"/>
       <c r="H88" s="4"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>393</v>
@@ -11581,23 +10532,21 @@
       <c r="F89" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G89" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G89" s="4"/>
       <c r="H89" s="4"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>393</v>
@@ -11605,23 +10554,21 @@
       <c r="F90" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G90" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G90" s="4"/>
       <c r="H90" s="4"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>63</v>
@@ -11629,23 +10576,21 @@
       <c r="F91" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G91" s="4"/>
       <c r="H91" s="4"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>393</v>
@@ -11653,23 +10598,21 @@
       <c r="F92" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G92" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G92" s="4"/>
       <c r="H92" s="4"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>393</v>
@@ -11677,23 +10620,21 @@
       <c r="F93" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G93" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G93" s="4"/>
       <c r="H93" s="4"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>63</v>
@@ -11701,23 +10642,21 @@
       <c r="F94" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G94" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G94" s="4"/>
       <c r="H94" s="4"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>393</v>
@@ -11725,23 +10664,21 @@
       <c r="F95" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G95" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G95" s="4"/>
       <c r="H95" s="4"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>63</v>
@@ -11749,23 +10686,21 @@
       <c r="F96" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G96" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G96" s="4"/>
       <c r="H96" s="4"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>63</v>
@@ -11773,23 +10708,21 @@
       <c r="F97" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G97" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G97" s="4"/>
       <c r="H97" s="4"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>394</v>
@@ -11797,23 +10730,21 @@
       <c r="F98" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G98" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G98" s="4"/>
       <c r="H98" s="4"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>63</v>
@@ -11821,23 +10752,21 @@
       <c r="F99" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G99" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G99" s="4"/>
       <c r="H99" s="4"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>63</v>
@@ -11845,23 +10774,21 @@
       <c r="F100" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G100" s="4"/>
       <c r="H100" s="4"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>63</v>
@@ -11869,23 +10796,21 @@
       <c r="F101" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G101" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G101" s="4"/>
       <c r="H101" s="4"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>63</v>
@@ -11893,23 +10818,21 @@
       <c r="F102" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G102" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G102" s="4"/>
       <c r="H102" s="4"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>394</v>
@@ -11917,23 +10840,21 @@
       <c r="F103" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G103" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G103" s="4"/>
       <c r="H103" s="4"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>394</v>
@@ -11941,23 +10862,21 @@
       <c r="F104" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G104" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G104" s="4"/>
       <c r="H104" s="4"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>63</v>
@@ -11965,9 +10884,7 @@
       <c r="F105" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G105" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G105" s="4"/>
       <c r="H105" s="4"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -11978,10 +10895,10 @@
         <v>119</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>63</v>
@@ -11989,23 +10906,21 @@
       <c r="F106" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G106" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G106" s="4"/>
       <c r="H106" s="4"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>63</v>
@@ -12013,9 +10928,7 @@
       <c r="F107" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G107" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G107" s="4"/>
       <c r="H107" s="4"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -12026,10 +10939,10 @@
         <v>61</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>394</v>
@@ -12037,9 +10950,7 @@
       <c r="F108" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G108" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G108" s="4"/>
       <c r="H108" s="4"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -12050,10 +10961,10 @@
         <v>62</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>63</v>
@@ -12061,23 +10972,21 @@
       <c r="F109" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G109" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G109" s="4"/>
       <c r="H109" s="4"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>63</v>
@@ -12085,23 +10994,21 @@
       <c r="F110" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G110" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G110" s="4"/>
       <c r="H110" s="4"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>393</v>
@@ -12109,23 +11016,21 @@
       <c r="F111" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G111" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G111" s="4"/>
       <c r="H111" s="4"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>393</v>
@@ -12133,23 +11038,21 @@
       <c r="F112" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G112" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G112" s="4"/>
       <c r="H112" s="4"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E113" s="4" t="s">
         <v>393</v>
@@ -12157,23 +11060,21 @@
       <c r="F113" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G113" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G113" s="4"/>
       <c r="H113" s="4"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>393</v>
@@ -12181,23 +11082,21 @@
       <c r="F114" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G114" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G114" s="4"/>
       <c r="H114" s="4"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>393</v>
@@ -12205,23 +11104,21 @@
       <c r="F115" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G115" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G115" s="4"/>
       <c r="H115" s="4"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>63</v>
@@ -12229,23 +11126,21 @@
       <c r="F116" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G116" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G116" s="4"/>
       <c r="H116" s="4"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>393</v>
@@ -12253,23 +11148,21 @@
       <c r="F117" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G117" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G117" s="4"/>
       <c r="H117" s="4"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>63</v>
@@ -12277,23 +11170,21 @@
       <c r="F118" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G118" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G118" s="4"/>
       <c r="H118" s="4"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>63</v>
@@ -12301,23 +11192,21 @@
       <c r="F119" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G119" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G119" s="4"/>
       <c r="H119" s="4"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>63</v>
@@ -12325,23 +11214,21 @@
       <c r="F120" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G120" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G120" s="4"/>
       <c r="H120" s="4"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>63</v>
@@ -12349,23 +11236,21 @@
       <c r="F121" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G121" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G121" s="4"/>
       <c r="H121" s="4"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>393</v>
@@ -12373,23 +11258,21 @@
       <c r="F122" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G122" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G122" s="4"/>
       <c r="H122" s="4"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>393</v>
@@ -12397,9 +11280,7 @@
       <c r="F123" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G123" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G123" s="4"/>
       <c r="H123" s="4"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -12410,10 +11291,10 @@
         <v>62</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>63</v>
@@ -12421,23 +11302,21 @@
       <c r="F124" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G124" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G124" s="4"/>
       <c r="H124" s="4"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>393</v>
@@ -12445,23 +11324,21 @@
       <c r="F125" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G125" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G125" s="4"/>
       <c r="H125" s="4"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>63</v>
@@ -12469,9 +11346,7 @@
       <c r="F126" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G126" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G126" s="4"/>
       <c r="H126" s="4"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -12493,9 +11368,7 @@
       <c r="F127" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G127" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G127" s="4"/>
       <c r="H127" s="4"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -12517,9 +11390,7 @@
       <c r="F128" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G128" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G128" s="4"/>
       <c r="H128" s="4"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -12541,9 +11412,7 @@
       <c r="F129" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G129" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G129" s="4"/>
       <c r="H129" s="4"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -12565,9 +11434,7 @@
       <c r="F130" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G130" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G130" s="4"/>
       <c r="H130" s="4"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -12589,9 +11456,7 @@
       <c r="F131" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G131" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G131" s="4"/>
       <c r="H131" s="4"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -12613,9 +11478,7 @@
       <c r="F132" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G132" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G132" s="4"/>
       <c r="H132" s="4"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -12637,9 +11500,7 @@
       <c r="F133" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G133" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G133" s="4"/>
       <c r="H133" s="4"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -12661,9 +11522,7 @@
       <c r="F134" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G134" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G134" s="4"/>
       <c r="H134" s="4"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -12685,9 +11544,7 @@
       <c r="F135" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G135" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G135" s="4"/>
       <c r="H135" s="4"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -12709,9 +11566,7 @@
       <c r="F136" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G136" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G136" s="4"/>
       <c r="H136" s="4"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -12733,9 +11588,7 @@
       <c r="F137" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G137" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G137" s="4"/>
       <c r="H137" s="4"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -12757,9 +11610,7 @@
       <c r="F138" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G138" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G138" s="4"/>
       <c r="H138" s="4"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -12781,9 +11632,7 @@
       <c r="F139" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G139" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G139" s="4"/>
       <c r="H139" s="4"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -12805,9 +11654,7 @@
       <c r="F140" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G140" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G140" s="4"/>
       <c r="H140" s="4"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -12829,9 +11676,7 @@
       <c r="F141" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G141" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G141" s="4"/>
       <c r="H141" s="4"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -12853,9 +11698,7 @@
       <c r="F142" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G142" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G142" s="4"/>
       <c r="H142" s="4"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -12877,9 +11720,7 @@
       <c r="F143" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G143" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G143" s="4"/>
       <c r="H143" s="4"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -12901,9 +11742,7 @@
       <c r="F144" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G144" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="G144" s="4"/>
       <c r="H144" s="4"/>
     </row>
   </sheetData>
@@ -12976,9 +11815,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
-        <v>647</v>
-      </c>
+      <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13006,9 +11843,7 @@
       <c r="H3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13036,9 +11871,7 @@
       <c r="H4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
   </sheetData>
@@ -13081,9 +11914,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="9" t="s">
-        <v>647</v>
-      </c>
+      <c r="C2" s="9"/>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -13093,9 +11924,7 @@
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -13105,9 +11934,7 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
   </sheetData>
@@ -13163,9 +11990,7 @@
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
-        <v>647</v>
-      </c>
+      <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -13184,9 +12009,7 @@
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -13205,9 +12028,7 @@
       <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -13226,9 +12047,7 @@
       <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -13247,9 +12066,7 @@
       <c r="E6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -13268,9 +12085,7 @@
       <c r="E7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -13289,9 +12104,7 @@
       <c r="E8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -13310,9 +12123,7 @@
       <c r="E9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -13331,9 +12142,7 @@
       <c r="E10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
   </sheetData>
@@ -13391,351 +12200,313 @@
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
-        <v>647</v>
-      </c>
+      <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>414</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>423</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>322</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>389</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>390</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
   </sheetData>
@@ -13777,58 +12548,58 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>575</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>566</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>567</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="N1" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>577</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>578</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>568</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>569</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>579</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>570</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>572</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>574</v>
-      </c>
       <c r="P1" s="9" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="S1" s="9" t="s">
         <v>2</v>
@@ -13860,41 +12631,39 @@
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
-      <c r="T2" s="9" t="s">
-        <v>647</v>
-      </c>
+      <c r="T2" s="9"/>
       <c r="U2" s="9"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>708</v>
+        <v>597</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>705</v>
+        <v>600</v>
       </c>
       <c r="F3" s="4">
         <v>987654321</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>256</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>708</v>
+        <v>597</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>33</v>
@@ -13909,55 +12678,53 @@
         <v>33</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>702</v>
+        <v>603</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>424</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>704</v>
+        <v>604</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="T3" s="4"/>
       <c r="U3" s="4"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>710</v>
+        <v>598</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>706</v>
+        <v>601</v>
       </c>
       <c r="F4" s="4">
         <v>987654321</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>256</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>710</v>
+        <v>598</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>33</v>
@@ -13972,55 +12739,53 @@
         <v>33</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>702</v>
+        <v>603</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>424</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>704</v>
+        <v>604</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T4" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="T4" s="4"/>
       <c r="U4" s="4"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>709</v>
+        <v>599</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>707</v>
+        <v>602</v>
       </c>
       <c r="F5" s="4">
         <v>987654321</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>256</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>709</v>
+        <v>599</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>33</v>
@@ -14035,23 +12800,21 @@
         <v>33</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>702</v>
+        <v>603</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>424</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>704</v>
+        <v>604</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T5" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="T5" s="4"/>
       <c r="U5" s="4"/>
     </row>
   </sheetData>
@@ -14310,16 +13073,16 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>323</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="E1" s="27" t="s">
         <v>2</v>
@@ -14337,62 +13100,54 @@
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
-      <c r="F2" s="27" t="s">
-        <v>647</v>
-      </c>
+      <c r="F2" s="27"/>
       <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>632</v>
-      </c>
+      <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>632</v>
-      </c>
+      <c r="F4" s="8"/>
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>632</v>
-      </c>
+      <c r="F5" s="8"/>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -14402,31 +13157,27 @@
       <c r="E6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>632</v>
-      </c>
+      <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>632</v>
-      </c>
+      <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -14436,14 +13187,12 @@
       <c r="E8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>632</v>
-      </c>
+      <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -14451,14 +13200,12 @@
       <c r="E9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>632</v>
-      </c>
+      <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -14468,14 +13215,12 @@
       <c r="E10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>632</v>
-      </c>
+      <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -14483,14 +13228,12 @@
       <c r="E11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>632</v>
-      </c>
+      <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -14498,14 +13241,12 @@
       <c r="E12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>632</v>
-      </c>
+      <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -14513,14 +13254,12 @@
       <c r="E13" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>632</v>
-      </c>
+      <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -14528,14 +13267,12 @@
       <c r="E14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>632</v>
-      </c>
+      <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -14543,14 +13280,12 @@
       <c r="E15" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>632</v>
-      </c>
+      <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -14558,14 +13293,12 @@
       <c r="E16" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>632</v>
-      </c>
+      <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -14573,14 +13306,12 @@
       <c r="E17" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>632</v>
-      </c>
+      <c r="F17" s="8"/>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -14588,14 +13319,12 @@
       <c r="E18" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>632</v>
-      </c>
+      <c r="F18" s="8"/>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -14603,14 +13332,12 @@
       <c r="E19" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>632</v>
-      </c>
+      <c r="F19" s="8"/>
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -14618,964 +13345,8 @@
       <c r="E20" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>632</v>
-      </c>
+      <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F72"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:F72"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="50.140625" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.7109375" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.5703125" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="5.85546875" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="15.5703125" style="28" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>628</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>323</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>597</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27" t="s">
-        <v>647</v>
-      </c>
-      <c r="F2" s="27"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>629</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>631</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>630</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>634</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>635</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>636</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>637</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>638</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>641</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>642</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>645</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>646</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>643</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>644</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>649</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>650</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>651</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>653</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>655</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>656</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>657</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>658</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>659</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>660</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>661</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-    </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>662</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>663</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>664</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>665</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>666</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-    </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>667</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-    </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-    </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>669</v>
-      </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>670</v>
-      </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-    </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>671</v>
-      </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-    </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>672</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-    </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>673</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-    </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>674</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-    </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>675</v>
-      </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-    </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>676</v>
-      </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>677</v>
-      </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-    </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
-        <v>678</v>
-      </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-    </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>679</v>
-      </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-    </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>680</v>
-      </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-    </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>681</v>
-      </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-    </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>682</v>
-      </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-    </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
-        <v>683</v>
-      </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-    </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
-        <v>684</v>
-      </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-    </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
-        <v>685</v>
-      </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-    </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
-        <v>686</v>
-      </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-    </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
-        <v>687</v>
-      </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-    </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
-        <v>688</v>
-      </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-    </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
-        <v>689</v>
-      </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-    </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>690</v>
-      </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-    </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
-        <v>691</v>
-      </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-    </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-    </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
-        <v>693</v>
-      </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-    </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
-        <v>694</v>
-      </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-    </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
-        <v>695</v>
-      </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-    </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
-        <v>696</v>
-      </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-    </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
-        <v>697</v>
-      </c>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-    </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
-        <v>698</v>
-      </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-    </row>
-    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
-        <v>699</v>
-      </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-    </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
-        <v>700</v>
-      </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-    </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
-        <v>701</v>
-      </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15618,9 +13389,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="9" t="s">
-        <v>647</v>
-      </c>
+      <c r="C2" s="9"/>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -15630,9 +13399,7 @@
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
   </sheetData>
@@ -15768,14 +13535,12 @@
       <c r="S2" s="14"/>
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
-      <c r="V2" s="14" t="s">
-        <v>647</v>
-      </c>
+      <c r="V2" s="14"/>
       <c r="W2" s="14"/>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>703</v>
+        <v>531</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>309</v>
@@ -15799,7 +13564,7 @@
         <v>33</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>702</v>
+        <v>424</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>349</v>
@@ -15837,9 +13602,7 @@
       <c r="U3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="V3" s="4"/>
       <c r="W3" s="4"/>
     </row>
   </sheetData>
@@ -15895,9 +13658,7 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
-        <v>647</v>
-      </c>
+      <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -15913,9 +13674,7 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -15931,9 +13690,7 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
   </sheetData>
@@ -15986,9 +13743,7 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
-        <v>647</v>
-      </c>
+      <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -16004,9 +13759,7 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -16022,9 +13775,7 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>632</v>
-      </c>
+      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
   </sheetData>

--- a/src/test/resources/com/sirion/xls/Client Admin Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Client Admin Suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="645" windowWidth="14805" windowHeight="7470" tabRatio="918" firstSheet="44" activeTab="52"/>
+    <workbookView xWindow="240" yWindow="645" windowWidth="14805" windowHeight="7470" tabRatio="918"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="634">
   <si>
     <t>TCID</t>
   </si>
@@ -2002,6 +2002,21 @@
   </si>
   <si>
     <t>QuickLinkContentControls</t>
+  </si>
+  <si>
+    <t>Raise Issue</t>
+  </si>
+  <si>
+    <t>Reject Before Acknowledge</t>
+  </si>
+  <si>
+    <t>Acknowledge</t>
+  </si>
+  <si>
+    <t>Assign</t>
+  </si>
+  <si>
+    <t>Reject</t>
   </si>
 </sst>
 </file>
@@ -2191,7 +2206,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2251,6 +2266,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2559,7 +2580,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -6667,10 +6688,10 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -7061,10 +7082,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>119</v>
+        <v>433</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>482</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>3</v>
@@ -7074,10 +7095,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>488</v>
+        <v>433</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>484</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>3</v>
@@ -7087,10 +7108,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>489</v>
+        <v>433</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>486</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>3</v>
@@ -7103,7 +7124,7 @@
         <v>434</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>524</v>
+        <v>119</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>3</v>
@@ -7116,7 +7137,7 @@
         <v>434</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>3</v>
@@ -7129,7 +7150,7 @@
         <v>434</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>61</v>
+        <v>489</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>3</v>
@@ -7142,7 +7163,7 @@
         <v>434</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>490</v>
+        <v>524</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>3</v>
@@ -7155,7 +7176,7 @@
         <v>434</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>61</v>
+        <v>470</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>3</v>
@@ -7168,7 +7189,7 @@
         <v>434</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>492</v>
+        <v>61</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>3</v>
@@ -7181,7 +7202,7 @@
         <v>434</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>3</v>
@@ -7194,7 +7215,7 @@
         <v>434</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>493</v>
+        <v>61</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>3</v>
@@ -7207,7 +7228,7 @@
         <v>434</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>3</v>
@@ -7220,7 +7241,7 @@
         <v>434</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>61</v>
+        <v>495</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>3</v>
@@ -7233,7 +7254,7 @@
         <v>434</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>3</v>
@@ -7243,10 +7264,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>528</v>
+        <v>496</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>3</v>
@@ -7256,10 +7277,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>529</v>
+        <v>61</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>3</v>
@@ -7269,10 +7290,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>530</v>
+        <v>497</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>3</v>
@@ -7282,10 +7303,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>511</v>
+        <v>629</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>3</v>
@@ -7295,10 +7316,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>510</v>
+        <v>630</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>3</v>
@@ -7308,10 +7329,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>507</v>
+        <v>631</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>3</v>
@@ -7321,10 +7342,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>470</v>
+        <v>632</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>3</v>
@@ -7334,10 +7355,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>3</v>
@@ -7347,10 +7368,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>3</v>
@@ -7360,10 +7381,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>519</v>
+        <v>633</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>3</v>
@@ -7373,10 +7394,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>3</v>
@@ -7386,10 +7407,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>62</v>
+        <v>505</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>3</v>
@@ -7399,10 +7420,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>473</v>
+        <v>528</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>3</v>
@@ -7412,10 +7433,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>3</v>
@@ -7424,11 +7445,11 @@
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>322</v>
+      <c r="A58" s="1" t="s">
+        <v>436</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>328</v>
+        <v>530</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>3</v>
@@ -7437,11 +7458,11 @@
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>322</v>
+      <c r="A59" s="1" t="s">
+        <v>437</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>329</v>
+        <v>511</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>3</v>
@@ -7450,11 +7471,11 @@
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>322</v>
+      <c r="A60" s="1" t="s">
+        <v>437</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>330</v>
+        <v>510</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>3</v>
@@ -7463,11 +7484,11 @@
       <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>322</v>
+      <c r="A61" s="1" t="s">
+        <v>437</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>331</v>
+        <v>507</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>3</v>
@@ -7476,11 +7497,11 @@
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>322</v>
+      <c r="A62" s="1" t="s">
+        <v>437</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>332</v>
+        <v>470</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>3</v>
@@ -7489,11 +7510,11 @@
       <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>389</v>
+      <c r="A63" s="1" t="s">
+        <v>437</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>396</v>
+        <v>508</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>3</v>
@@ -7502,11 +7523,11 @@
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>389</v>
+      <c r="A64" s="1" t="s">
+        <v>437</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>397</v>
+        <v>509</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>3</v>
@@ -7515,11 +7536,11 @@
       <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>389</v>
+      <c r="A65" s="1" t="s">
+        <v>437</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>398</v>
+        <v>519</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>3</v>
@@ -7528,11 +7549,11 @@
       <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>389</v>
+      <c r="A66" s="1" t="s">
+        <v>437</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>399</v>
+        <v>518</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>3</v>
@@ -7541,11 +7562,11 @@
       <c r="E66" s="4"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>389</v>
+      <c r="A67" s="1" t="s">
+        <v>437</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>400</v>
+        <v>62</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>3</v>
@@ -7554,11 +7575,11 @@
       <c r="E67" s="4"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>390</v>
+      <c r="A68" s="1" t="s">
+        <v>437</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>401</v>
+        <v>473</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>3</v>
@@ -7567,11 +7588,11 @@
       <c r="E68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>390</v>
+      <c r="A69" s="1" t="s">
+        <v>437</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>402</v>
+        <v>520</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>3</v>
@@ -7581,10 +7602,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>390</v>
+        <v>322</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>403</v>
+        <v>328</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>3</v>
@@ -7594,10 +7615,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>390</v>
+        <v>322</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>404</v>
+        <v>329</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>3</v>
@@ -7607,16 +7628,172 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>390</v>
+        <v>322</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>405</v>
+        <v>330</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11890,9 +12067,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="10" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="5.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
@@ -12518,7 +12695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
